--- a/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,22 +629,22 @@
         <v>1.000494110223573</v>
       </c>
       <c r="D3">
+        <v>1.001275665506103</v>
+      </c>
+      <c r="E3">
+        <v>0.9989371300473142</v>
+      </c>
+      <c r="F3">
+        <v>1.000483703528748</v>
+      </c>
+      <c r="G3">
+        <v>1.000479422257351</v>
+      </c>
+      <c r="H3">
         <v>0.9980613274803908</v>
       </c>
-      <c r="E3">
-        <v>1.000479422257351</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
         <v>1.000494110223573</v>
-      </c>
-      <c r="G3">
-        <v>1.001275665506103</v>
-      </c>
-      <c r="H3">
-        <v>0.9989371300473142</v>
-      </c>
-      <c r="I3">
-        <v>1.000483703528748</v>
       </c>
       <c r="J3">
         <v>0.9980613274803908</v>
@@ -728,7 +680,7 @@
         <v>0.9999552265072463</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,22 +691,22 @@
         <v>1.000953345806396</v>
       </c>
       <c r="D4">
+        <v>1.002463232802966</v>
+      </c>
+      <c r="E4">
+        <v>0.9979481588522058</v>
+      </c>
+      <c r="F4">
+        <v>1.000933748547277</v>
+      </c>
+      <c r="G4">
+        <v>1.000925687899135</v>
+      </c>
+      <c r="H4">
         <v>0.9962577372339715</v>
       </c>
-      <c r="E4">
-        <v>1.000925687899135</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>1.000953345806396</v>
-      </c>
-      <c r="G4">
-        <v>1.002463232802966</v>
-      </c>
-      <c r="H4">
-        <v>0.9979481588522057</v>
-      </c>
-      <c r="I4">
-        <v>1.000933748547277</v>
       </c>
       <c r="J4">
         <v>0.9962577372339715</v>
@@ -787,10 +739,10 @@
         <v>0.9997725291864745</v>
       </c>
       <c r="T4">
-        <v>0.9999136518569918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999136518569919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +753,22 @@
         <v>1.001826105056012</v>
       </c>
       <c r="D5">
+        <v>1.004721425393643</v>
+      </c>
+      <c r="E5">
+        <v>0.9960679273612335</v>
+      </c>
+      <c r="F5">
+        <v>1.001789355146591</v>
+      </c>
+      <c r="G5">
+        <v>1.001774234828855</v>
+      </c>
+      <c r="H5">
         <v>0.9928289483675267</v>
       </c>
-      <c r="E5">
-        <v>1.001774234828855</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
         <v>1.001826105056012</v>
-      </c>
-      <c r="G5">
-        <v>1.004721425393643</v>
-      </c>
-      <c r="H5">
-        <v>0.9960679273612335</v>
-      </c>
-      <c r="I5">
-        <v>1.001789355146591</v>
       </c>
       <c r="J5">
         <v>0.9928289483675267</v>
@@ -852,7 +804,7 @@
         <v>0.9998346660256437</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,22 +815,22 @@
         <v>1.002677668915991</v>
       </c>
       <c r="D6">
+        <v>1.006925536629668</v>
+      </c>
+      <c r="E6">
+        <v>0.9942329221682713</v>
+      </c>
+      <c r="F6">
+        <v>1.002624370036316</v>
+      </c>
+      <c r="G6">
+        <v>1.002602446464443</v>
+      </c>
+      <c r="H6">
         <v>0.9894827554393714</v>
       </c>
-      <c r="E6">
-        <v>1.002602446464443</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.002677668915991</v>
-      </c>
-      <c r="G6">
-        <v>1.006925536629668</v>
-      </c>
-      <c r="H6">
-        <v>0.9942329221682713</v>
-      </c>
-      <c r="I6">
-        <v>1.002624370036316</v>
       </c>
       <c r="J6">
         <v>0.9894827554393714</v>
@@ -914,7 +866,7 @@
         <v>0.9997576166090102</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,22 +877,22 @@
         <v>1.000031698864526</v>
       </c>
       <c r="D7">
+        <v>1.00008812123162</v>
+      </c>
+      <c r="E7">
+        <v>0.9999281962065939</v>
+      </c>
+      <c r="F7">
+        <v>1.000032587892326</v>
+      </c>
+      <c r="G7">
+        <v>1.000032954401727</v>
+      </c>
+      <c r="H7">
         <v>0.9998699745074197</v>
       </c>
-      <c r="E7">
-        <v>1.000032954401727</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
         <v>1.000031698864526</v>
-      </c>
-      <c r="G7">
-        <v>1.00008812123162</v>
-      </c>
-      <c r="H7">
-        <v>0.9999281962065939</v>
-      </c>
-      <c r="I7">
-        <v>1.000032587892326</v>
       </c>
       <c r="J7">
         <v>0.9998699745074197</v>
@@ -976,7 +928,7 @@
         <v>0.9999972555173686</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,22 +939,22 @@
         <v>1.000077977527867</v>
       </c>
       <c r="D8">
+        <v>1.000216803596647</v>
+      </c>
+      <c r="E8">
+        <v>0.9998233462785215</v>
+      </c>
+      <c r="F8">
+        <v>1.000080173678027</v>
+      </c>
+      <c r="G8">
+        <v>1.000081078500773</v>
+      </c>
+      <c r="H8">
         <v>0.9996801147812138</v>
       </c>
-      <c r="E8">
-        <v>1.000081078500773</v>
-      </c>
-      <c r="F8">
+      <c r="I8">
         <v>1.000077977527867</v>
-      </c>
-      <c r="G8">
-        <v>1.000216803596647</v>
-      </c>
-      <c r="H8">
-        <v>0.9998233462785215</v>
-      </c>
-      <c r="I8">
-        <v>1.000080173678027</v>
       </c>
       <c r="J8">
         <v>0.9996801147812138</v>
@@ -1014,31 +966,31 @@
         <v>1.000081078500773</v>
       </c>
       <c r="M8">
-        <v>0.9998805966409936</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="N8">
-        <v>0.9998805966409936</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="O8">
         <v>0.9998615131868362</v>
       </c>
       <c r="P8">
-        <v>0.9999463902699514</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="Q8">
-        <v>0.9999463902699514</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="R8">
-        <v>0.9999792870844302</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="S8">
-        <v>0.9999792870844302</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="T8">
-        <v>0.9999932490605082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999932490605085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,22 +1001,22 @@
         <v>1.000104494766218</v>
       </c>
       <c r="D9">
+        <v>1.000290360510107</v>
+      </c>
+      <c r="E9">
+        <v>0.9997633699305497</v>
+      </c>
+      <c r="F9">
+        <v>1.000107396502208</v>
+      </c>
+      <c r="G9">
+        <v>1.000108590773229</v>
+      </c>
+      <c r="H9">
         <v>0.9995714855552978</v>
       </c>
-      <c r="E9">
-        <v>1.000108590773229</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.000104494766218</v>
-      </c>
-      <c r="G9">
-        <v>1.000290360510107</v>
-      </c>
-      <c r="H9">
-        <v>0.9997633699305497</v>
-      </c>
-      <c r="I9">
-        <v>1.000107396502208</v>
       </c>
       <c r="J9">
         <v>0.9995714855552978</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999909496729349</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,22 +1063,22 @@
         <v>1.000229668901211</v>
       </c>
       <c r="D10">
+        <v>1.00063799808295</v>
+      </c>
+      <c r="E10">
+        <v>0.9994800138541357</v>
+      </c>
+      <c r="F10">
+        <v>1.000236001994208</v>
+      </c>
+      <c r="G10">
+        <v>1.000238608652331</v>
+      </c>
+      <c r="H10">
         <v>0.9990583303217252</v>
       </c>
-      <c r="E10">
-        <v>1.000238608652331</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
         <v>1.000229668901211</v>
-      </c>
-      <c r="G10">
-        <v>1.00063799808295</v>
-      </c>
-      <c r="H10">
-        <v>0.9994800138541357</v>
-      </c>
-      <c r="I10">
-        <v>1.000236001994208</v>
       </c>
       <c r="J10">
         <v>0.9990583303217252</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999801036344268</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,22 +1125,22 @@
         <v>1.000370255944929</v>
       </c>
       <c r="D11">
+        <v>1.001027671118211</v>
+      </c>
+      <c r="E11">
+        <v>0.9991622201675352</v>
+      </c>
+      <c r="F11">
+        <v>1.000380250990533</v>
+      </c>
+      <c r="G11">
+        <v>1.000384365893127</v>
+      </c>
+      <c r="H11">
         <v>0.9984826930834566</v>
       </c>
-      <c r="E11">
-        <v>1.000384365893127</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
         <v>1.000370255944929</v>
-      </c>
-      <c r="G11">
-        <v>1.001027671118211</v>
-      </c>
-      <c r="H11">
-        <v>0.9991622201675352</v>
-      </c>
-      <c r="I11">
-        <v>1.000380250990533</v>
       </c>
       <c r="J11">
         <v>0.9984826930834566</v>
@@ -1212,19 +1164,19 @@
         <v>0.9997457716405042</v>
       </c>
       <c r="Q11">
-        <v>0.9997457716405039</v>
+        <v>0.9997457716405042</v>
       </c>
       <c r="R11">
-        <v>0.9999018927166102</v>
+        <v>0.9999018927166103</v>
       </c>
       <c r="S11">
-        <v>0.9999018927166102</v>
+        <v>0.9999018927166103</v>
       </c>
       <c r="T11">
-        <v>0.9999679095329652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999679095329653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,22 +1187,22 @@
         <v>0.9968322276474076</v>
       </c>
       <c r="D12">
+        <v>0.9905691250984633</v>
+      </c>
+      <c r="E12">
+        <v>1.00753559308632</v>
+      </c>
+      <c r="F12">
+        <v>0.9965883628031168</v>
+      </c>
+      <c r="G12">
+        <v>0.9964880066287487</v>
+      </c>
+      <c r="H12">
         <v>1.013556224439598</v>
       </c>
-      <c r="E12">
-        <v>0.9964880066287487</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
         <v>0.9968322276474076</v>
-      </c>
-      <c r="G12">
-        <v>0.9905691250984633</v>
-      </c>
-      <c r="H12">
-        <v>1.00753559308632</v>
-      </c>
-      <c r="I12">
-        <v>0.9965883628031168</v>
       </c>
       <c r="J12">
         <v>1.013556224439598</v>
@@ -1286,7 +1238,7 @@
         <v>1.000261589950609</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,22 +1249,22 @@
         <v>0.9990044525379738</v>
       </c>
       <c r="D13">
+        <v>0.9977634669739772</v>
+      </c>
+      <c r="E13">
+        <v>1.001949287928831</v>
+      </c>
+      <c r="F13">
+        <v>0.9991081617959522</v>
+      </c>
+      <c r="G13">
+        <v>0.9991508431319363</v>
+      </c>
+      <c r="H13">
         <v>1.003605760467463</v>
       </c>
-      <c r="E13">
-        <v>0.9991508431319361</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>0.9990044525379738</v>
-      </c>
-      <c r="G13">
-        <v>0.9977634669739773</v>
-      </c>
-      <c r="H13">
-        <v>1.001949287928831</v>
-      </c>
-      <c r="I13">
-        <v>0.9991081617959521</v>
       </c>
       <c r="J13">
         <v>1.003605760467463</v>
@@ -1321,7 +1273,7 @@
         <v>0.9990044525379738</v>
       </c>
       <c r="L13">
-        <v>0.9991508431319361</v>
+        <v>0.9991508431319363</v>
       </c>
       <c r="M13">
         <v>1.0013783017997</v>
@@ -1348,7 +1300,7 @@
         <v>1.000096995472689</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,22 +1311,22 @@
         <v>0.9900358477152421</v>
       </c>
       <c r="D14">
+        <v>0.9729884594911625</v>
+      </c>
+      <c r="E14">
+        <v>1.022174853850979</v>
+      </c>
+      <c r="F14">
+        <v>0.9899266303380642</v>
+      </c>
+      <c r="G14">
+        <v>0.9898816838310925</v>
+      </c>
+      <c r="H14">
         <v>1.040253016084317</v>
       </c>
-      <c r="E14">
-        <v>0.9898816838310925</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.9900358477152421</v>
-      </c>
-      <c r="G14">
-        <v>0.9729884594911625</v>
-      </c>
-      <c r="H14">
-        <v>1.022174853850979</v>
-      </c>
-      <c r="I14">
-        <v>0.9899266303380641</v>
       </c>
       <c r="J14">
         <v>1.040253016084317</v>
@@ -1410,7 +1362,7 @@
         <v>1.00087674855181</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,22 +1373,22 @@
         <v>0.9972920549189415</v>
       </c>
       <c r="D15">
+        <v>0.9929717101565173</v>
+      </c>
+      <c r="E15">
+        <v>1.005846372533538</v>
+      </c>
+      <c r="F15">
+        <v>0.9973398846491768</v>
+      </c>
+      <c r="G15">
+        <v>0.9973595655156353</v>
+      </c>
+      <c r="H15">
         <v>1.010658170748781</v>
       </c>
-      <c r="E15">
-        <v>0.9973595655156353</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>0.9972920549189415</v>
-      </c>
-      <c r="G15">
-        <v>0.9929717101565173</v>
-      </c>
-      <c r="H15">
-        <v>1.005846372533538</v>
-      </c>
-      <c r="I15">
-        <v>0.9973398846491768</v>
       </c>
       <c r="J15">
         <v>1.010658170748781</v>
@@ -1472,7 +1424,7 @@
         <v>1.000244626420432</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003377969717</v>
+        <v>1.009612155519582</v>
       </c>
       <c r="D16">
-        <v>0.9999911723594185</v>
+        <v>1.024905795792697</v>
       </c>
       <c r="E16">
-        <v>1.000001556132417</v>
+        <v>0.9792717911512039</v>
       </c>
       <c r="F16">
-        <v>1.000003377969717</v>
+        <v>1.00943197600072</v>
       </c>
       <c r="G16">
-        <v>1.000003805509835</v>
+        <v>1.009357833810903</v>
       </c>
       <c r="H16">
-        <v>0.9999955672556298</v>
+        <v>0.9622053313787445</v>
       </c>
       <c r="I16">
-        <v>1.000002086735512</v>
+        <v>1.009612155519582</v>
       </c>
       <c r="J16">
-        <v>0.9999911723594185</v>
+        <v>0.9622053313787445</v>
       </c>
       <c r="K16">
-        <v>1.000003377969717</v>
+        <v>1.009612155519582</v>
       </c>
       <c r="L16">
-        <v>1.000001556132417</v>
+        <v>1.009357833810903</v>
       </c>
       <c r="M16">
-        <v>0.9999963642459178</v>
+        <v>0.985781582594824</v>
       </c>
       <c r="N16">
-        <v>0.9999963642459178</v>
+        <v>0.985781582594824</v>
       </c>
       <c r="O16">
-        <v>0.9999960985824884</v>
+        <v>0.9836116521136172</v>
       </c>
       <c r="P16">
-        <v>0.9999987021538509</v>
+        <v>0.9937251069030767</v>
       </c>
       <c r="Q16">
-        <v>0.9999987021538509</v>
+        <v>0.9937251069030767</v>
       </c>
       <c r="R16">
-        <v>0.9999998711078175</v>
+        <v>0.997696869057203</v>
       </c>
       <c r="S16">
-        <v>0.9999998711078175</v>
+        <v>0.997696869057203</v>
       </c>
       <c r="T16">
-        <v>0.9999995943270883</v>
+        <v>0.9991308139423086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000038381226689</v>
+        <v>1.007802550101733</v>
       </c>
       <c r="D17">
-        <v>0.9998334327049919</v>
+        <v>1.020436317065281</v>
       </c>
       <c r="E17">
-        <v>1.00004345328493</v>
+        <v>0.9830477896149898</v>
       </c>
       <c r="F17">
-        <v>1.000038381226689</v>
+        <v>1.007710679441631</v>
       </c>
       <c r="G17">
-        <v>1.000116845065069</v>
+        <v>1.007672877159959</v>
       </c>
       <c r="H17">
-        <v>0.9999072149764497</v>
+        <v>0.9691232333162775</v>
       </c>
       <c r="I17">
-        <v>1.00004197337816</v>
+        <v>1.007802550101733</v>
       </c>
       <c r="J17">
-        <v>0.9998334327049919</v>
+        <v>0.9691232333162775</v>
       </c>
       <c r="K17">
-        <v>1.000038381226689</v>
+        <v>1.007802550101733</v>
       </c>
       <c r="L17">
-        <v>1.00004345328493</v>
+        <v>1.007672877159959</v>
       </c>
       <c r="M17">
-        <v>0.9999384429949612</v>
+        <v>0.9883980552381182</v>
       </c>
       <c r="N17">
-        <v>0.9999384429949612</v>
+        <v>0.9883980552381182</v>
       </c>
       <c r="O17">
-        <v>0.9999280336554573</v>
+        <v>0.9866146333637421</v>
       </c>
       <c r="P17">
-        <v>0.9999717557388705</v>
+        <v>0.9948662201926565</v>
       </c>
       <c r="Q17">
-        <v>0.9999717557388706</v>
+        <v>0.9948662201926565</v>
       </c>
       <c r="R17">
-        <v>0.9999884121108253</v>
+        <v>0.9981003026699256</v>
       </c>
       <c r="S17">
-        <v>0.9999884121108253</v>
+        <v>0.9981003026699256</v>
       </c>
       <c r="T17">
-        <v>0.9999968834393819</v>
+        <v>0.999298907783312</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158094547322</v>
+        <v>1.004159986636541</v>
       </c>
       <c r="D18">
-        <v>0.9993994301368482</v>
+        <v>1.011428517370633</v>
       </c>
       <c r="E18">
-        <v>1.000145725031723</v>
+        <v>0.9906549472180681</v>
       </c>
       <c r="F18">
-        <v>1.000158094547322</v>
+        <v>1.004243107246161</v>
       </c>
       <c r="G18">
-        <v>1.000386243050389</v>
+        <v>1.004277313087512</v>
       </c>
       <c r="H18">
-        <v>0.999672550776291</v>
+        <v>0.9830583591543673</v>
       </c>
       <c r="I18">
-        <v>1.000149329950734</v>
+        <v>1.004159986636541</v>
       </c>
       <c r="J18">
-        <v>0.9993994301368482</v>
+        <v>0.9830583591543673</v>
       </c>
       <c r="K18">
-        <v>1.000158094547322</v>
+        <v>1.004159986636541</v>
       </c>
       <c r="L18">
-        <v>1.000145725031723</v>
+        <v>1.004277313087512</v>
       </c>
       <c r="M18">
-        <v>0.9997725775842858</v>
+        <v>0.9936678361209396</v>
       </c>
       <c r="N18">
-        <v>0.9997725775842858</v>
+        <v>0.9936678361209396</v>
       </c>
       <c r="O18">
-        <v>0.9997392353149542</v>
+        <v>0.9926635398199825</v>
       </c>
       <c r="P18">
-        <v>0.9999010832386311</v>
+        <v>0.9971652196261401</v>
       </c>
       <c r="Q18">
-        <v>0.9999010832386311</v>
+        <v>0.9971652196261401</v>
       </c>
       <c r="R18">
-        <v>0.9999653360658038</v>
+        <v>0.9989139113787404</v>
       </c>
       <c r="S18">
-        <v>0.9999653360658038</v>
+        <v>0.9989139113787404</v>
       </c>
       <c r="T18">
-        <v>0.9999852289155514</v>
+        <v>0.9996370384522137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="D19">
+        <v>1.012558506876013</v>
+      </c>
+      <c r="E19">
+        <v>0.9897583359943053</v>
+      </c>
+      <c r="F19">
+        <v>1.004648669412835</v>
+      </c>
+      <c r="G19">
+        <v>1.00469748000417</v>
+      </c>
+      <c r="H19">
+        <v>0.9814492370857055</v>
+      </c>
+      <c r="I19">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="J19">
+        <v>0.9814492370857055</v>
+      </c>
+      <c r="K19">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="L19">
+        <v>1.00469748000417</v>
+      </c>
+      <c r="M19">
+        <v>0.9930733585449378</v>
+      </c>
+      <c r="N19">
+        <v>0.9930733585449378</v>
+      </c>
+      <c r="O19">
+        <v>0.9919683510280604</v>
+      </c>
+      <c r="P19">
+        <v>0.9968922628730695</v>
+      </c>
+      <c r="Q19">
+        <v>0.9968922628730695</v>
+      </c>
+      <c r="R19">
+        <v>0.9988017150371356</v>
+      </c>
+      <c r="S19">
+        <v>0.9988017150371356</v>
+      </c>
+      <c r="T19">
+        <v>0.9996070501503937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="D20">
+        <v>1.000003805509835</v>
+      </c>
+      <c r="E20">
+        <v>0.9999955672556298</v>
+      </c>
+      <c r="F20">
+        <v>1.000002086735512</v>
+      </c>
+      <c r="G20">
+        <v>1.000001556132417</v>
+      </c>
+      <c r="H20">
+        <v>0.9999911723594185</v>
+      </c>
+      <c r="I20">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="J20">
+        <v>0.9999911723594185</v>
+      </c>
+      <c r="K20">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="L20">
+        <v>1.000001556132417</v>
+      </c>
+      <c r="M20">
+        <v>0.9999963642459178</v>
+      </c>
+      <c r="N20">
+        <v>0.9999963642459178</v>
+      </c>
+      <c r="O20">
+        <v>0.9999960985824884</v>
+      </c>
+      <c r="P20">
+        <v>0.9999987021538509</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999987021538509</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998711078175</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998711078175</v>
+      </c>
+      <c r="T20">
+        <v>0.9999995943270883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="D21">
+        <v>1.000116845065069</v>
+      </c>
+      <c r="E21">
+        <v>0.9999072149764495</v>
+      </c>
+      <c r="F21">
+        <v>1.00004197337816</v>
+      </c>
+      <c r="G21">
+        <v>1.00004345328493</v>
+      </c>
+      <c r="H21">
+        <v>0.9998334327049919</v>
+      </c>
+      <c r="I21">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="J21">
+        <v>0.9998334327049919</v>
+      </c>
+      <c r="K21">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="L21">
+        <v>1.00004345328493</v>
+      </c>
+      <c r="M21">
+        <v>0.9999384429949612</v>
+      </c>
+      <c r="N21">
+        <v>0.9999384429949612</v>
+      </c>
+      <c r="O21">
+        <v>0.9999280336554572</v>
+      </c>
+      <c r="P21">
+        <v>0.9999717557388705</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999717557388706</v>
+      </c>
+      <c r="R21">
+        <v>0.9999884121108253</v>
+      </c>
+      <c r="S21">
+        <v>0.9999884121108253</v>
+      </c>
+      <c r="T21">
+        <v>0.9999968834393819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="D22">
+        <v>1.00038624305039</v>
+      </c>
+      <c r="E22">
+        <v>0.9996725507762912</v>
+      </c>
+      <c r="F22">
+        <v>1.000149329950734</v>
+      </c>
+      <c r="G22">
+        <v>1.000145725031724</v>
+      </c>
+      <c r="H22">
+        <v>0.9993994301368482</v>
+      </c>
+      <c r="I22">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="J22">
+        <v>0.9993994301368482</v>
+      </c>
+      <c r="K22">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="L22">
+        <v>1.000145725031724</v>
+      </c>
+      <c r="M22">
+        <v>0.9997725775842858</v>
+      </c>
+      <c r="N22">
+        <v>0.9997725775842858</v>
+      </c>
+      <c r="O22">
+        <v>0.9997392353149542</v>
+      </c>
+      <c r="P22">
+        <v>0.9999010832386311</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999010832386311</v>
+      </c>
+      <c r="R22">
+        <v>0.9999653360658038</v>
+      </c>
+      <c r="S22">
+        <v>0.9999653360658038</v>
+      </c>
+      <c r="T22">
+        <v>0.9999852289155514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000385497309048</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000888304632702</v>
+      </c>
+      <c r="E23">
+        <v>0.9992323698357467</v>
+      </c>
+      <c r="F23">
+        <v>1.00035085717029</v>
+      </c>
+      <c r="G23">
+        <v>1.000336605211952</v>
+      </c>
+      <c r="H23">
         <v>0.9985837379535079</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.000385497309048</v>
+      </c>
+      <c r="J23">
+        <v>0.9985837379535079</v>
+      </c>
+      <c r="K23">
+        <v>1.000385497309048</v>
+      </c>
+      <c r="L23">
         <v>1.000336605211952</v>
       </c>
-      <c r="F19">
-        <v>1.000385497309048</v>
-      </c>
-      <c r="G19">
-        <v>1.000888304632702</v>
-      </c>
-      <c r="H19">
-        <v>0.9992323698357467</v>
-      </c>
-      <c r="I19">
-        <v>1.00035085717029</v>
-      </c>
-      <c r="J19">
-        <v>0.9985837379535079</v>
-      </c>
-      <c r="K19">
-        <v>1.000385497309048</v>
-      </c>
-      <c r="L19">
-        <v>1.000336605211952</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.99946017158273</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.99946017158273</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9993842376670689</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9997686134915026</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9997686134915026</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999228344458889</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999228344458889</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999628953522079</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000494110223573</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="D3">
-        <v>1.001275665506103</v>
+        <v>1.013586162838613</v>
       </c>
       <c r="E3">
-        <v>0.9989371300473142</v>
+        <v>0.9888898419668624</v>
       </c>
       <c r="F3">
-        <v>1.000483703528748</v>
+        <v>1.005044591577809</v>
       </c>
       <c r="G3">
-        <v>1.000479422257351</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="H3">
-        <v>0.9980613274803908</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="I3">
-        <v>1.000494110223573</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="J3">
-        <v>0.9980613274803908</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="K3">
-        <v>1.000494110223573</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="L3">
-        <v>1.000479422257351</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="M3">
-        <v>0.9992703748688707</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="N3">
-        <v>0.9992703748688707</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="O3">
-        <v>0.9991592932616852</v>
+        <v>0.9912775643059565</v>
       </c>
       <c r="P3">
-        <v>0.9996782866537713</v>
+        <v>0.9966298118948119</v>
       </c>
       <c r="Q3">
-        <v>0.9996782866537712</v>
+        <v>0.9966298118948121</v>
       </c>
       <c r="R3">
-        <v>0.9998822425462216</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="S3">
-        <v>0.9998822425462216</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="T3">
-        <v>0.9999552265072463</v>
+        <v>0.9995683386779534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000953345806396</v>
+        <v>1.004526698570633</v>
       </c>
       <c r="D4">
-        <v>1.002463232802966</v>
+        <v>1.012437799330982</v>
       </c>
       <c r="E4">
-        <v>0.9979481588522058</v>
+        <v>0.9898301031513214</v>
       </c>
       <c r="F4">
-        <v>1.000933748547277</v>
+        <v>1.004617598011551</v>
       </c>
       <c r="G4">
-        <v>1.000925687899135</v>
+        <v>1.004655008101938</v>
       </c>
       <c r="H4">
-        <v>0.9962577372339715</v>
+        <v>0.9815632674888148</v>
       </c>
       <c r="I4">
-        <v>1.000953345806396</v>
+        <v>1.004526698570633</v>
       </c>
       <c r="J4">
-        <v>0.9962577372339715</v>
+        <v>0.9815632674888148</v>
       </c>
       <c r="K4">
-        <v>1.000953345806396</v>
+        <v>1.004526698570633</v>
       </c>
       <c r="L4">
-        <v>1.000925687899135</v>
+        <v>1.004655008101938</v>
       </c>
       <c r="M4">
-        <v>0.9985917125665535</v>
+        <v>0.9931091377953762</v>
       </c>
       <c r="N4">
-        <v>0.9985917125665535</v>
+        <v>0.9931091377953762</v>
       </c>
       <c r="O4">
-        <v>0.9983771946617709</v>
+        <v>0.9920161262473579</v>
       </c>
       <c r="P4">
-        <v>0.9993789236465008</v>
+        <v>0.9969149913871286</v>
       </c>
       <c r="Q4">
-        <v>0.9993789236465008</v>
+        <v>0.9969149913871286</v>
       </c>
       <c r="R4">
-        <v>0.9997725291864745</v>
+        <v>0.9988179181830046</v>
       </c>
       <c r="S4">
-        <v>0.9997725291864745</v>
+        <v>0.9988179181830046</v>
       </c>
       <c r="T4">
-        <v>0.9999136518569919</v>
+        <v>0.9996050791092066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001826105056012</v>
+        <v>1.005739133045823</v>
       </c>
       <c r="D5">
-        <v>1.004721425393643</v>
+        <v>1.015756131940701</v>
       </c>
       <c r="E5">
-        <v>0.9960679273612335</v>
+        <v>0.987113689541779</v>
       </c>
       <c r="F5">
-        <v>1.001789355146591</v>
+        <v>1.005851151563341</v>
       </c>
       <c r="G5">
-        <v>1.001774234828855</v>
+        <v>1.005897253504043</v>
       </c>
       <c r="H5">
-        <v>0.9928289483675267</v>
+        <v>0.9766368738814007</v>
       </c>
       <c r="I5">
-        <v>1.001826105056012</v>
+        <v>1.005739133045823</v>
       </c>
       <c r="J5">
-        <v>0.9928289483675267</v>
+        <v>0.9766368738814007</v>
       </c>
       <c r="K5">
-        <v>1.001826105056012</v>
+        <v>1.005739133045823</v>
       </c>
       <c r="L5">
-        <v>1.001774234828855</v>
+        <v>1.005897253504043</v>
       </c>
       <c r="M5">
-        <v>0.9973015915981907</v>
+        <v>0.9912670636927219</v>
       </c>
       <c r="N5">
-        <v>0.9973015915981907</v>
+        <v>0.9912670636927219</v>
       </c>
       <c r="O5">
-        <v>0.9968903701858717</v>
+        <v>0.9898826056424076</v>
       </c>
       <c r="P5">
-        <v>0.9988097627507978</v>
+        <v>0.9960910868104221</v>
       </c>
       <c r="Q5">
-        <v>0.9988097627507978</v>
+        <v>0.9960910868104221</v>
       </c>
       <c r="R5">
-        <v>0.9995638483271014</v>
+        <v>0.9985030983692722</v>
       </c>
       <c r="S5">
-        <v>0.9995638483271014</v>
+        <v>0.9985030983692722</v>
       </c>
       <c r="T5">
-        <v>0.9998346660256437</v>
+        <v>0.9994990389128479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002677668915991</v>
+        <v>1.00647336625</v>
       </c>
       <c r="D6">
-        <v>1.006925536629668</v>
+        <v>1.017769254545454</v>
       </c>
       <c r="E6">
-        <v>0.9942329221682713</v>
+        <v>0.9854666092613641</v>
       </c>
       <c r="F6">
-        <v>1.002624370036316</v>
+        <v>1.006599056704545</v>
       </c>
       <c r="G6">
-        <v>1.002602446464443</v>
+        <v>1.006650791704546</v>
       </c>
       <c r="H6">
-        <v>0.9894827554393714</v>
+        <v>0.9736502985795463</v>
       </c>
       <c r="I6">
-        <v>1.002677668915991</v>
+        <v>1.00647336625</v>
       </c>
       <c r="J6">
-        <v>0.9894827554393714</v>
+        <v>0.9736502985795463</v>
       </c>
       <c r="K6">
-        <v>1.002677668915991</v>
+        <v>1.00647336625</v>
       </c>
       <c r="L6">
-        <v>1.002602446464443</v>
+        <v>1.006650791704546</v>
       </c>
       <c r="M6">
-        <v>0.9960426009519072</v>
+        <v>0.9901505451420464</v>
       </c>
       <c r="N6">
-        <v>0.9960426009519072</v>
+        <v>0.9901505451420464</v>
       </c>
       <c r="O6">
-        <v>0.9954393746906952</v>
+        <v>0.9885892331818189</v>
       </c>
       <c r="P6">
-        <v>0.9982542902732684</v>
+        <v>0.9955914855113642</v>
       </c>
       <c r="Q6">
-        <v>0.9982542902732686</v>
+        <v>0.9955914855113642</v>
       </c>
       <c r="R6">
-        <v>0.9993601349339492</v>
+        <v>0.9983119556960233</v>
       </c>
       <c r="S6">
-        <v>0.9993601349339492</v>
+        <v>0.9983119556960233</v>
       </c>
       <c r="T6">
-        <v>0.9997576166090102</v>
+        <v>0.9994348961742427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000031698864526</v>
+        <v>1.002722376550912</v>
       </c>
       <c r="D7">
-        <v>1.00008812123162</v>
+        <v>1.008247320478165</v>
       </c>
       <c r="E7">
-        <v>0.9999281962065939</v>
+        <v>0.9934418943988056</v>
       </c>
       <c r="F7">
-        <v>1.000032587892326</v>
+        <v>1.002967270829353</v>
       </c>
       <c r="G7">
-        <v>1.000032954401727</v>
+        <v>1.003068054712261</v>
       </c>
       <c r="H7">
-        <v>0.9998699745074197</v>
+        <v>0.98822161774497</v>
       </c>
       <c r="I7">
-        <v>1.000031698864526</v>
+        <v>1.002722376550912</v>
       </c>
       <c r="J7">
-        <v>0.9998699745074197</v>
+        <v>0.98822161774497</v>
       </c>
       <c r="K7">
-        <v>1.000031698864526</v>
+        <v>1.002722376550912</v>
       </c>
       <c r="L7">
-        <v>1.000032954401727</v>
+        <v>1.003068054712261</v>
       </c>
       <c r="M7">
-        <v>0.9999514644545733</v>
+        <v>0.9956448362286152</v>
       </c>
       <c r="N7">
-        <v>0.9999514644545733</v>
+        <v>0.9956448362286152</v>
       </c>
       <c r="O7">
-        <v>0.9999437083719135</v>
+        <v>0.9949105222853453</v>
       </c>
       <c r="P7">
-        <v>0.9999782092578907</v>
+        <v>0.9980040163360474</v>
       </c>
       <c r="Q7">
-        <v>0.9999782092578907</v>
+        <v>0.9980040163360474</v>
       </c>
       <c r="R7">
-        <v>0.9999915816595495</v>
+        <v>0.9991836063897634</v>
       </c>
       <c r="S7">
-        <v>0.9999915816595495</v>
+        <v>0.9991836063897634</v>
       </c>
       <c r="T7">
-        <v>0.9999972555173686</v>
+        <v>0.9997780891190776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000077977527867</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="D8">
-        <v>1.000216803596647</v>
+        <v>1.008479339999648</v>
       </c>
       <c r="E8">
-        <v>0.9998233462785215</v>
+        <v>0.9932526761971201</v>
       </c>
       <c r="F8">
-        <v>1.000080173678027</v>
+        <v>1.003053156783667</v>
       </c>
       <c r="G8">
-        <v>1.000081078500773</v>
+        <v>1.003154841354327</v>
       </c>
       <c r="H8">
-        <v>0.9996801147812138</v>
+        <v>0.9878788843810128</v>
       </c>
       <c r="I8">
-        <v>1.000077977527867</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="J8">
-        <v>0.9996801147812138</v>
+        <v>0.9878788843810128</v>
       </c>
       <c r="K8">
-        <v>1.000077977527867</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="L8">
-        <v>1.000081078500773</v>
+        <v>1.003154841354327</v>
       </c>
       <c r="M8">
-        <v>0.9998805966409935</v>
+        <v>0.9955168628676698</v>
       </c>
       <c r="N8">
-        <v>0.9998805966409935</v>
+        <v>0.9955168628676698</v>
       </c>
       <c r="O8">
-        <v>0.9998615131868362</v>
+        <v>0.9947621339774866</v>
       </c>
       <c r="P8">
-        <v>0.9999463902699515</v>
+        <v>0.9979465999545809</v>
       </c>
       <c r="Q8">
-        <v>0.9999463902699515</v>
+        <v>0.9979465999545809</v>
       </c>
       <c r="R8">
-        <v>0.9999792870844304</v>
+        <v>0.9991614684980364</v>
       </c>
       <c r="S8">
-        <v>0.9999792870844304</v>
+        <v>0.9991614684980364</v>
       </c>
       <c r="T8">
-        <v>0.9999932490605085</v>
+        <v>0.999770828807363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000104494766218</v>
+        <v>1.002886805755605</v>
       </c>
       <c r="D9">
-        <v>1.000290360510107</v>
+        <v>1.008706034001335</v>
       </c>
       <c r="E9">
-        <v>0.9997633699305497</v>
+        <v>0.993068494853989</v>
       </c>
       <c r="F9">
-        <v>1.000107396502208</v>
+        <v>1.003136717329443</v>
       </c>
       <c r="G9">
-        <v>1.000108590773229</v>
+        <v>1.003239566267631</v>
       </c>
       <c r="H9">
-        <v>0.9995714855552978</v>
+        <v>0.9875456895781128</v>
       </c>
       <c r="I9">
-        <v>1.000104494766218</v>
+        <v>1.002886805755605</v>
       </c>
       <c r="J9">
-        <v>0.9995714855552978</v>
+        <v>0.9875456895781128</v>
       </c>
       <c r="K9">
-        <v>1.000104494766218</v>
+        <v>1.002886805755605</v>
       </c>
       <c r="L9">
-        <v>1.000108590773229</v>
+        <v>1.003239566267631</v>
       </c>
       <c r="M9">
-        <v>0.9998400381642634</v>
+        <v>0.995392627922872</v>
       </c>
       <c r="N9">
-        <v>0.9998400381642634</v>
+        <v>0.995392627922872</v>
       </c>
       <c r="O9">
-        <v>0.9998144820863587</v>
+        <v>0.994617916899911</v>
       </c>
       <c r="P9">
-        <v>0.999928190364915</v>
+        <v>0.9978906872004497</v>
       </c>
       <c r="Q9">
-        <v>0.9999281903649151</v>
+        <v>0.9978906872004497</v>
       </c>
       <c r="R9">
-        <v>0.9999722664652408</v>
+        <v>0.9991397168392385</v>
       </c>
       <c r="S9">
-        <v>0.9999722664652408</v>
+        <v>0.9991397168392385</v>
       </c>
       <c r="T9">
-        <v>0.9999909496729349</v>
+        <v>0.9997638846310194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000229668901211</v>
+        <v>1.002986311028272</v>
       </c>
       <c r="D10">
-        <v>1.00063799808295</v>
+        <v>1.008986309302819</v>
       </c>
       <c r="E10">
-        <v>0.9994800138541357</v>
+        <v>0.9928409854668742</v>
       </c>
       <c r="F10">
-        <v>1.000236001994208</v>
+        <v>1.003239923703566</v>
       </c>
       <c r="G10">
-        <v>1.000238608652331</v>
+        <v>1.003344296065969</v>
       </c>
       <c r="H10">
-        <v>0.9990583303217252</v>
+        <v>0.9871342338915083</v>
       </c>
       <c r="I10">
-        <v>1.000229668901211</v>
+        <v>1.002986311028272</v>
       </c>
       <c r="J10">
-        <v>0.9990583303217252</v>
+        <v>0.9871342338915083</v>
       </c>
       <c r="K10">
-        <v>1.000229668901211</v>
+        <v>1.002986311028272</v>
       </c>
       <c r="L10">
-        <v>1.000238608652331</v>
+        <v>1.003344296065969</v>
       </c>
       <c r="M10">
-        <v>0.999648469487028</v>
+        <v>0.9952392649787386</v>
       </c>
       <c r="N10">
-        <v>0.999648469487028</v>
+        <v>0.9952392649787386</v>
       </c>
       <c r="O10">
-        <v>0.9995923176093973</v>
+        <v>0.9944398384747838</v>
       </c>
       <c r="P10">
-        <v>0.9998422026250889</v>
+        <v>0.9978216136619165</v>
       </c>
       <c r="Q10">
-        <v>0.9998422026250889</v>
+        <v>0.9978216136619165</v>
       </c>
       <c r="R10">
-        <v>0.9999390691941195</v>
+        <v>0.9991127880035053</v>
       </c>
       <c r="S10">
-        <v>0.9999390691941195</v>
+        <v>0.9991127880035053</v>
       </c>
       <c r="T10">
-        <v>0.9999801036344268</v>
+        <v>0.9997553432431682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000370255944929</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="D11">
-        <v>1.001027671118211</v>
+        <v>1.001397080567509</v>
       </c>
       <c r="E11">
-        <v>0.9991622201675352</v>
+        <v>0.9988366473608982</v>
       </c>
       <c r="F11">
-        <v>1.000380250990533</v>
+        <v>1.000529395188792</v>
       </c>
       <c r="G11">
-        <v>1.000384365893127</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="H11">
-        <v>0.9984826930834566</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="I11">
-        <v>1.000370255944929</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="J11">
-        <v>0.9984826930834566</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="K11">
-        <v>1.000370255944929</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="L11">
-        <v>1.000384365893127</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="M11">
-        <v>0.9994335294882917</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="N11">
-        <v>0.9994335294882917</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="O11">
-        <v>0.9993430930480395</v>
+        <v>0.9990800256874522</v>
       </c>
       <c r="P11">
-        <v>0.9997457716405042</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="Q11">
-        <v>0.9997457716405042</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="R11">
-        <v>0.9999018927166103</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="S11">
-        <v>0.9999018927166103</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="T11">
-        <v>0.9999679095329653</v>
+        <v>0.9999511113386452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9968322276474076</v>
+        <v>1.000252247253571</v>
       </c>
       <c r="D12">
-        <v>0.9905691250984633</v>
+        <v>1.000657176323717</v>
       </c>
       <c r="E12">
-        <v>1.00753559308632</v>
+        <v>0.9994539763287079</v>
       </c>
       <c r="F12">
-        <v>0.9965883628031168</v>
+        <v>1.000248406598973</v>
       </c>
       <c r="G12">
-        <v>0.9964880066287487</v>
+        <v>1.0002468268017</v>
       </c>
       <c r="H12">
-        <v>1.013556224439598</v>
+        <v>0.9990049473965658</v>
       </c>
       <c r="I12">
-        <v>0.9968322276474076</v>
+        <v>1.000252247253571</v>
       </c>
       <c r="J12">
-        <v>1.013556224439598</v>
+        <v>0.9990049473965658</v>
       </c>
       <c r="K12">
-        <v>0.9968322276474076</v>
+        <v>1.000252247253571</v>
       </c>
       <c r="L12">
-        <v>0.9964880066287487</v>
+        <v>1.0002468268017</v>
       </c>
       <c r="M12">
-        <v>1.005022115534173</v>
+        <v>0.999625887099133</v>
       </c>
       <c r="N12">
-        <v>1.005022115534173</v>
+        <v>0.999625887099133</v>
       </c>
       <c r="O12">
-        <v>1.005859941384889</v>
+        <v>0.9995685835089914</v>
       </c>
       <c r="P12">
-        <v>1.002292152905251</v>
+        <v>0.9998346738172792</v>
       </c>
       <c r="Q12">
-        <v>1.002292152905252</v>
+        <v>0.9998346738172792</v>
       </c>
       <c r="R12">
-        <v>1.000927171590791</v>
+        <v>0.9999390671763522</v>
       </c>
       <c r="S12">
-        <v>1.000927171590791</v>
+        <v>0.9999390671763522</v>
       </c>
       <c r="T12">
-        <v>1.000261589950609</v>
+        <v>0.9999772634505391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9990044525379738</v>
+        <v>1.000815361814204</v>
       </c>
       <c r="D13">
-        <v>0.9977634669739772</v>
+        <v>1.002117474116256</v>
       </c>
       <c r="E13">
-        <v>1.001949287928831</v>
+        <v>0.9982389377894099</v>
       </c>
       <c r="F13">
-        <v>0.9991081617959522</v>
+        <v>1.000801270105639</v>
       </c>
       <c r="G13">
-        <v>0.9991508431319363</v>
+        <v>1.000795470168015</v>
       </c>
       <c r="H13">
-        <v>1.003605760467463</v>
+        <v>0.9967896953147672</v>
       </c>
       <c r="I13">
-        <v>0.9990044525379738</v>
+        <v>1.000815361814204</v>
       </c>
       <c r="J13">
-        <v>1.003605760467463</v>
+        <v>0.9967896953147672</v>
       </c>
       <c r="K13">
-        <v>0.9990044525379738</v>
+        <v>1.000815361814204</v>
       </c>
       <c r="L13">
-        <v>0.9991508431319363</v>
+        <v>1.000795470168015</v>
       </c>
       <c r="M13">
-        <v>1.0013783017997</v>
+        <v>0.998792582741391</v>
       </c>
       <c r="N13">
-        <v>1.0013783017997</v>
+        <v>0.998792582741391</v>
       </c>
       <c r="O13">
-        <v>1.00156863050941</v>
+        <v>0.998608034424064</v>
       </c>
       <c r="P13">
-        <v>1.000587018712458</v>
+        <v>0.9994668424323289</v>
       </c>
       <c r="Q13">
-        <v>1.000587018712458</v>
+        <v>0.9994668424323289</v>
       </c>
       <c r="R13">
-        <v>1.000191377168837</v>
+        <v>0.9998039722777978</v>
       </c>
       <c r="S13">
-        <v>1.000191377168837</v>
+        <v>0.9998039722777978</v>
       </c>
       <c r="T13">
-        <v>1.000096995472689</v>
+        <v>0.9999263682180485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900358477152421</v>
+        <v>1.001374986135648</v>
       </c>
       <c r="D14">
-        <v>0.9729884594911625</v>
+        <v>1.003556901298726</v>
       </c>
       <c r="E14">
-        <v>1.022174853850979</v>
+        <v>0.997038241920267</v>
       </c>
       <c r="F14">
-        <v>0.9899266303380642</v>
+        <v>1.001347773536508</v>
       </c>
       <c r="G14">
-        <v>0.9898816838310925</v>
+        <v>1.001336580493627</v>
       </c>
       <c r="H14">
-        <v>1.040253016084317</v>
+        <v>0.9945988179882174</v>
       </c>
       <c r="I14">
-        <v>0.9900358477152421</v>
+        <v>1.001374986135648</v>
       </c>
       <c r="J14">
-        <v>1.040253016084317</v>
+        <v>0.9945988179882174</v>
       </c>
       <c r="K14">
-        <v>0.9900358477152421</v>
+        <v>1.001374986135648</v>
       </c>
       <c r="L14">
-        <v>0.9898816838310925</v>
+        <v>1.001336580493627</v>
       </c>
       <c r="M14">
-        <v>1.015067349957705</v>
+        <v>0.9979676992409221</v>
       </c>
       <c r="N14">
-        <v>1.015067349957705</v>
+        <v>0.9979676992409221</v>
       </c>
       <c r="O14">
-        <v>1.017436517922129</v>
+        <v>0.997657880134037</v>
       </c>
       <c r="P14">
-        <v>1.006723515876884</v>
+        <v>0.9991034615391641</v>
       </c>
       <c r="Q14">
-        <v>1.006723515876884</v>
+        <v>0.9991034615391641</v>
       </c>
       <c r="R14">
-        <v>1.002551598836473</v>
+        <v>0.9996713426882851</v>
       </c>
       <c r="S14">
-        <v>1.002551598836473</v>
+        <v>0.9996713426882851</v>
       </c>
       <c r="T14">
-        <v>1.00087674855181</v>
+        <v>0.9998755502288322</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9972920549189415</v>
+        <v>1.000494110223573</v>
       </c>
       <c r="D15">
-        <v>0.9929717101565173</v>
+        <v>1.001275665506103</v>
       </c>
       <c r="E15">
-        <v>1.005846372533538</v>
+        <v>0.9989371300473142</v>
       </c>
       <c r="F15">
-        <v>0.9973398846491768</v>
+        <v>1.000483703528748</v>
       </c>
       <c r="G15">
-        <v>0.9973595655156353</v>
+        <v>1.000479422257351</v>
       </c>
       <c r="H15">
-        <v>1.010658170748781</v>
+        <v>0.9980613274803908</v>
       </c>
       <c r="I15">
-        <v>0.9972920549189415</v>
+        <v>1.000494110223573</v>
       </c>
       <c r="J15">
-        <v>1.010658170748781</v>
+        <v>0.9980613274803908</v>
       </c>
       <c r="K15">
-        <v>0.9972920549189415</v>
+        <v>1.000494110223573</v>
       </c>
       <c r="L15">
-        <v>0.9973595655156353</v>
+        <v>1.000479422257351</v>
       </c>
       <c r="M15">
-        <v>1.004008868132208</v>
+        <v>0.9992703748688707</v>
       </c>
       <c r="N15">
-        <v>1.004008868132208</v>
+        <v>0.9992703748688707</v>
       </c>
       <c r="O15">
-        <v>1.004621369599318</v>
+        <v>0.9991592932616852</v>
       </c>
       <c r="P15">
-        <v>1.001769930394453</v>
+        <v>0.9996782866537713</v>
       </c>
       <c r="Q15">
-        <v>1.001769930394453</v>
+        <v>0.9996782866537712</v>
       </c>
       <c r="R15">
-        <v>1.000650461525575</v>
+        <v>0.9998822425462216</v>
       </c>
       <c r="S15">
-        <v>1.000650461525575</v>
+        <v>0.9998822425462216</v>
       </c>
       <c r="T15">
-        <v>1.000244626420432</v>
+        <v>0.9999552265072463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.009612155519582</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="D16">
-        <v>1.024905795792697</v>
+        <v>1.002463232802966</v>
       </c>
       <c r="E16">
-        <v>0.9792717911512039</v>
+        <v>0.9979481588522058</v>
       </c>
       <c r="F16">
-        <v>1.00943197600072</v>
+        <v>1.000933748547277</v>
       </c>
       <c r="G16">
-        <v>1.009357833810903</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="H16">
-        <v>0.9622053313787445</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="I16">
-        <v>1.009612155519582</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="J16">
-        <v>0.9622053313787445</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="K16">
-        <v>1.009612155519582</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="L16">
-        <v>1.009357833810903</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="M16">
-        <v>0.985781582594824</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="N16">
-        <v>0.985781582594824</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="O16">
-        <v>0.9836116521136172</v>
+        <v>0.9983771946617709</v>
       </c>
       <c r="P16">
-        <v>0.9937251069030767</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="Q16">
-        <v>0.9937251069030767</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="R16">
-        <v>0.997696869057203</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="S16">
-        <v>0.997696869057203</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="T16">
-        <v>0.9991308139423086</v>
+        <v>0.9999136518569919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.007802550101733</v>
+        <v>1.001826105056012</v>
       </c>
       <c r="D17">
-        <v>1.020436317065281</v>
+        <v>1.004721425393643</v>
       </c>
       <c r="E17">
-        <v>0.9830477896149898</v>
+        <v>0.9960679273612335</v>
       </c>
       <c r="F17">
-        <v>1.007710679441631</v>
+        <v>1.001789355146591</v>
       </c>
       <c r="G17">
-        <v>1.007672877159959</v>
+        <v>1.001774234828855</v>
       </c>
       <c r="H17">
-        <v>0.9691232333162775</v>
+        <v>0.9928289483675267</v>
       </c>
       <c r="I17">
-        <v>1.007802550101733</v>
+        <v>1.001826105056012</v>
       </c>
       <c r="J17">
-        <v>0.9691232333162775</v>
+        <v>0.9928289483675267</v>
       </c>
       <c r="K17">
-        <v>1.007802550101733</v>
+        <v>1.001826105056012</v>
       </c>
       <c r="L17">
-        <v>1.007672877159959</v>
+        <v>1.001774234828855</v>
       </c>
       <c r="M17">
-        <v>0.9883980552381182</v>
+        <v>0.9973015915981907</v>
       </c>
       <c r="N17">
-        <v>0.9883980552381182</v>
+        <v>0.9973015915981907</v>
       </c>
       <c r="O17">
-        <v>0.9866146333637421</v>
+        <v>0.9968903701858717</v>
       </c>
       <c r="P17">
-        <v>0.9948662201926565</v>
+        <v>0.9988097627507978</v>
       </c>
       <c r="Q17">
-        <v>0.9948662201926565</v>
+        <v>0.9988097627507978</v>
       </c>
       <c r="R17">
-        <v>0.9981003026699256</v>
+        <v>0.9995638483271014</v>
       </c>
       <c r="S17">
-        <v>0.9981003026699256</v>
+        <v>0.9995638483271014</v>
       </c>
       <c r="T17">
-        <v>0.999298907783312</v>
+        <v>0.9998346660256437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004159986636541</v>
+        <v>1.002677668915991</v>
       </c>
       <c r="D18">
-        <v>1.011428517370633</v>
+        <v>1.006925536629668</v>
       </c>
       <c r="E18">
-        <v>0.9906549472180681</v>
+        <v>0.9942329221682713</v>
       </c>
       <c r="F18">
-        <v>1.004243107246161</v>
+        <v>1.002624370036316</v>
       </c>
       <c r="G18">
-        <v>1.004277313087512</v>
+        <v>1.002602446464443</v>
       </c>
       <c r="H18">
-        <v>0.9830583591543673</v>
+        <v>0.9894827554393714</v>
       </c>
       <c r="I18">
-        <v>1.004159986636541</v>
+        <v>1.002677668915991</v>
       </c>
       <c r="J18">
-        <v>0.9830583591543673</v>
+        <v>0.9894827554393714</v>
       </c>
       <c r="K18">
-        <v>1.004159986636541</v>
+        <v>1.002677668915991</v>
       </c>
       <c r="L18">
-        <v>1.004277313087512</v>
+        <v>1.002602446464443</v>
       </c>
       <c r="M18">
-        <v>0.9936678361209396</v>
+        <v>0.9960426009519072</v>
       </c>
       <c r="N18">
-        <v>0.9936678361209396</v>
+        <v>0.9960426009519072</v>
       </c>
       <c r="O18">
-        <v>0.9926635398199825</v>
+        <v>0.9954393746906952</v>
       </c>
       <c r="P18">
-        <v>0.9971652196261401</v>
+        <v>0.9982542902732684</v>
       </c>
       <c r="Q18">
-        <v>0.9971652196261401</v>
+        <v>0.9982542902732686</v>
       </c>
       <c r="R18">
-        <v>0.9989139113787404</v>
+        <v>0.9993601349339492</v>
       </c>
       <c r="S18">
-        <v>0.9989139113787404</v>
+        <v>0.9993601349339492</v>
       </c>
       <c r="T18">
-        <v>0.9996370384522137</v>
+        <v>0.9997576166090102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004530071529333</v>
+        <v>1.000031698864526</v>
       </c>
       <c r="D19">
-        <v>1.012558506876013</v>
+        <v>1.00008812123162</v>
       </c>
       <c r="E19">
-        <v>0.9897583359943053</v>
+        <v>0.9999281962065939</v>
       </c>
       <c r="F19">
-        <v>1.004648669412835</v>
+        <v>1.000032587892326</v>
       </c>
       <c r="G19">
-        <v>1.00469748000417</v>
+        <v>1.000032954401727</v>
       </c>
       <c r="H19">
-        <v>0.9814492370857055</v>
+        <v>0.9998699745074197</v>
       </c>
       <c r="I19">
-        <v>1.004530071529333</v>
+        <v>1.000031698864526</v>
       </c>
       <c r="J19">
-        <v>0.9814492370857055</v>
+        <v>0.9998699745074197</v>
       </c>
       <c r="K19">
-        <v>1.004530071529333</v>
+        <v>1.000031698864526</v>
       </c>
       <c r="L19">
-        <v>1.00469748000417</v>
+        <v>1.000032954401727</v>
       </c>
       <c r="M19">
-        <v>0.9930733585449378</v>
+        <v>0.9999514644545733</v>
       </c>
       <c r="N19">
-        <v>0.9930733585449378</v>
+        <v>0.9999514644545733</v>
       </c>
       <c r="O19">
-        <v>0.9919683510280604</v>
+        <v>0.9999437083719135</v>
       </c>
       <c r="P19">
-        <v>0.9968922628730695</v>
+        <v>0.9999782092578907</v>
       </c>
       <c r="Q19">
-        <v>0.9968922628730695</v>
+        <v>0.9999782092578907</v>
       </c>
       <c r="R19">
-        <v>0.9988017150371356</v>
+        <v>0.9999915816595495</v>
       </c>
       <c r="S19">
-        <v>0.9988017150371356</v>
+        <v>0.9999915816595495</v>
       </c>
       <c r="T19">
-        <v>0.9996070501503937</v>
+        <v>0.9999972555173686</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000003377969717</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="D20">
-        <v>1.000003805509835</v>
+        <v>1.000216803596647</v>
       </c>
       <c r="E20">
-        <v>0.9999955672556298</v>
+        <v>0.9998233462785215</v>
       </c>
       <c r="F20">
-        <v>1.000002086735512</v>
+        <v>1.000080173678027</v>
       </c>
       <c r="G20">
-        <v>1.000001556132417</v>
+        <v>1.000081078500773</v>
       </c>
       <c r="H20">
-        <v>0.9999911723594185</v>
+        <v>0.9996801147812138</v>
       </c>
       <c r="I20">
-        <v>1.000003377969717</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="J20">
-        <v>0.9999911723594185</v>
+        <v>0.9996801147812138</v>
       </c>
       <c r="K20">
-        <v>1.000003377969717</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="L20">
-        <v>1.000001556132417</v>
+        <v>1.000081078500773</v>
       </c>
       <c r="M20">
-        <v>0.9999963642459178</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="N20">
-        <v>0.9999963642459178</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="O20">
-        <v>0.9999960985824884</v>
+        <v>0.9998615131868362</v>
       </c>
       <c r="P20">
-        <v>0.9999987021538509</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="Q20">
-        <v>0.9999987021538509</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="R20">
-        <v>0.9999998711078175</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="S20">
-        <v>0.9999998711078175</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="T20">
-        <v>0.9999995943270883</v>
+        <v>0.9999932490605085</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000038381226689</v>
+        <v>1.000104494766218</v>
       </c>
       <c r="D21">
-        <v>1.000116845065069</v>
+        <v>1.000290360510107</v>
       </c>
       <c r="E21">
-        <v>0.9999072149764495</v>
+        <v>0.9997633699305497</v>
       </c>
       <c r="F21">
-        <v>1.00004197337816</v>
+        <v>1.000107396502208</v>
       </c>
       <c r="G21">
-        <v>1.00004345328493</v>
+        <v>1.000108590773229</v>
       </c>
       <c r="H21">
-        <v>0.9998334327049919</v>
+        <v>0.9995714855552978</v>
       </c>
       <c r="I21">
-        <v>1.000038381226689</v>
+        <v>1.000104494766218</v>
       </c>
       <c r="J21">
-        <v>0.9998334327049919</v>
+        <v>0.9995714855552978</v>
       </c>
       <c r="K21">
-        <v>1.000038381226689</v>
+        <v>1.000104494766218</v>
       </c>
       <c r="L21">
-        <v>1.00004345328493</v>
+        <v>1.000108590773229</v>
       </c>
       <c r="M21">
-        <v>0.9999384429949612</v>
+        <v>0.9998400381642634</v>
       </c>
       <c r="N21">
-        <v>0.9999384429949612</v>
+        <v>0.9998400381642634</v>
       </c>
       <c r="O21">
-        <v>0.9999280336554572</v>
+        <v>0.9998144820863587</v>
       </c>
       <c r="P21">
-        <v>0.9999717557388705</v>
+        <v>0.999928190364915</v>
       </c>
       <c r="Q21">
-        <v>0.9999717557388706</v>
+        <v>0.9999281903649151</v>
       </c>
       <c r="R21">
-        <v>0.9999884121108253</v>
+        <v>0.9999722664652408</v>
       </c>
       <c r="S21">
-        <v>0.9999884121108253</v>
+        <v>0.9999722664652408</v>
       </c>
       <c r="T21">
-        <v>0.9999968834393819</v>
+        <v>0.9999909496729349</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000158094547322</v>
+        <v>1.000229668901211</v>
       </c>
       <c r="D22">
-        <v>1.00038624305039</v>
+        <v>1.00063799808295</v>
       </c>
       <c r="E22">
-        <v>0.9996725507762912</v>
+        <v>0.9994800138541357</v>
       </c>
       <c r="F22">
-        <v>1.000149329950734</v>
+        <v>1.000236001994208</v>
       </c>
       <c r="G22">
-        <v>1.000145725031724</v>
+        <v>1.000238608652331</v>
       </c>
       <c r="H22">
-        <v>0.9993994301368482</v>
+        <v>0.9990583303217252</v>
       </c>
       <c r="I22">
-        <v>1.000158094547322</v>
+        <v>1.000229668901211</v>
       </c>
       <c r="J22">
-        <v>0.9993994301368482</v>
+        <v>0.9990583303217252</v>
       </c>
       <c r="K22">
-        <v>1.000158094547322</v>
+        <v>1.000229668901211</v>
       </c>
       <c r="L22">
-        <v>1.000145725031724</v>
+        <v>1.000238608652331</v>
       </c>
       <c r="M22">
-        <v>0.9997725775842858</v>
+        <v>0.999648469487028</v>
       </c>
       <c r="N22">
-        <v>0.9997725775842858</v>
+        <v>0.999648469487028</v>
       </c>
       <c r="O22">
-        <v>0.9997392353149542</v>
+        <v>0.9995923176093973</v>
       </c>
       <c r="P22">
-        <v>0.9999010832386311</v>
+        <v>0.9998422026250889</v>
       </c>
       <c r="Q22">
-        <v>0.9999010832386311</v>
+        <v>0.9998422026250889</v>
       </c>
       <c r="R22">
-        <v>0.9999653360658038</v>
+        <v>0.9999390691941195</v>
       </c>
       <c r="S22">
-        <v>0.9999653360658038</v>
+        <v>0.9999390691941195</v>
       </c>
       <c r="T22">
-        <v>0.9999852289155514</v>
+        <v>0.9999801036344268</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000370255944929</v>
+      </c>
+      <c r="D23">
+        <v>1.001027671118211</v>
+      </c>
+      <c r="E23">
+        <v>0.9991622201675352</v>
+      </c>
+      <c r="F23">
+        <v>1.000380250990533</v>
+      </c>
+      <c r="G23">
+        <v>1.000384365893127</v>
+      </c>
+      <c r="H23">
+        <v>0.9984826930834566</v>
+      </c>
+      <c r="I23">
+        <v>1.000370255944929</v>
+      </c>
+      <c r="J23">
+        <v>0.9984826930834566</v>
+      </c>
+      <c r="K23">
+        <v>1.000370255944929</v>
+      </c>
+      <c r="L23">
+        <v>1.000384365893127</v>
+      </c>
+      <c r="M23">
+        <v>0.9994335294882917</v>
+      </c>
+      <c r="N23">
+        <v>0.9994335294882917</v>
+      </c>
+      <c r="O23">
+        <v>0.9993430930480395</v>
+      </c>
+      <c r="P23">
+        <v>0.9997457716405042</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997457716405042</v>
+      </c>
+      <c r="R23">
+        <v>0.9999018927166103</v>
+      </c>
+      <c r="S23">
+        <v>0.9999018927166103</v>
+      </c>
+      <c r="T23">
+        <v>0.9999679095329653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="D24">
+        <v>0.9905691250984633</v>
+      </c>
+      <c r="E24">
+        <v>1.00753559308632</v>
+      </c>
+      <c r="F24">
+        <v>0.9965883628031168</v>
+      </c>
+      <c r="G24">
+        <v>0.9964880066287487</v>
+      </c>
+      <c r="H24">
+        <v>1.013556224439598</v>
+      </c>
+      <c r="I24">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="J24">
+        <v>1.013556224439598</v>
+      </c>
+      <c r="K24">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="L24">
+        <v>0.9964880066287487</v>
+      </c>
+      <c r="M24">
+        <v>1.005022115534173</v>
+      </c>
+      <c r="N24">
+        <v>1.005022115534173</v>
+      </c>
+      <c r="O24">
+        <v>1.005859941384889</v>
+      </c>
+      <c r="P24">
+        <v>1.002292152905251</v>
+      </c>
+      <c r="Q24">
+        <v>1.002292152905252</v>
+      </c>
+      <c r="R24">
+        <v>1.000927171590791</v>
+      </c>
+      <c r="S24">
+        <v>1.000927171590791</v>
+      </c>
+      <c r="T24">
+        <v>1.000261589950609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="D25">
+        <v>0.9977634669739772</v>
+      </c>
+      <c r="E25">
+        <v>1.001949287928831</v>
+      </c>
+      <c r="F25">
+        <v>0.9991081617959522</v>
+      </c>
+      <c r="G25">
+        <v>0.9991508431319363</v>
+      </c>
+      <c r="H25">
+        <v>1.003605760467463</v>
+      </c>
+      <c r="I25">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="J25">
+        <v>1.003605760467463</v>
+      </c>
+      <c r="K25">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="L25">
+        <v>0.9991508431319363</v>
+      </c>
+      <c r="M25">
+        <v>1.0013783017997</v>
+      </c>
+      <c r="N25">
+        <v>1.0013783017997</v>
+      </c>
+      <c r="O25">
+        <v>1.00156863050941</v>
+      </c>
+      <c r="P25">
+        <v>1.000587018712458</v>
+      </c>
+      <c r="Q25">
+        <v>1.000587018712458</v>
+      </c>
+      <c r="R25">
+        <v>1.000191377168837</v>
+      </c>
+      <c r="S25">
+        <v>1.000191377168837</v>
+      </c>
+      <c r="T25">
+        <v>1.000096995472689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="D26">
+        <v>0.9729884594911625</v>
+      </c>
+      <c r="E26">
+        <v>1.022174853850979</v>
+      </c>
+      <c r="F26">
+        <v>0.9899266303380642</v>
+      </c>
+      <c r="G26">
+        <v>0.9898816838310925</v>
+      </c>
+      <c r="H26">
+        <v>1.040253016084317</v>
+      </c>
+      <c r="I26">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="J26">
+        <v>1.040253016084317</v>
+      </c>
+      <c r="K26">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="L26">
+        <v>0.9898816838310925</v>
+      </c>
+      <c r="M26">
+        <v>1.015067349957705</v>
+      </c>
+      <c r="N26">
+        <v>1.015067349957705</v>
+      </c>
+      <c r="O26">
+        <v>1.017436517922129</v>
+      </c>
+      <c r="P26">
+        <v>1.006723515876884</v>
+      </c>
+      <c r="Q26">
+        <v>1.006723515876884</v>
+      </c>
+      <c r="R26">
+        <v>1.002551598836473</v>
+      </c>
+      <c r="S26">
+        <v>1.002551598836473</v>
+      </c>
+      <c r="T26">
+        <v>1.00087674855181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="D27">
+        <v>0.9929717101565173</v>
+      </c>
+      <c r="E27">
+        <v>1.005846372533538</v>
+      </c>
+      <c r="F27">
+        <v>0.9973398846491768</v>
+      </c>
+      <c r="G27">
+        <v>0.9973595655156353</v>
+      </c>
+      <c r="H27">
+        <v>1.010658170748781</v>
+      </c>
+      <c r="I27">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="J27">
+        <v>1.010658170748781</v>
+      </c>
+      <c r="K27">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="L27">
+        <v>0.9973595655156353</v>
+      </c>
+      <c r="M27">
+        <v>1.004008868132208</v>
+      </c>
+      <c r="N27">
+        <v>1.004008868132208</v>
+      </c>
+      <c r="O27">
+        <v>1.004621369599318</v>
+      </c>
+      <c r="P27">
+        <v>1.001769930394453</v>
+      </c>
+      <c r="Q27">
+        <v>1.001769930394453</v>
+      </c>
+      <c r="R27">
+        <v>1.000650461525575</v>
+      </c>
+      <c r="S27">
+        <v>1.000650461525575</v>
+      </c>
+      <c r="T27">
+        <v>1.000244626420432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.009612155519582</v>
+      </c>
+      <c r="D28">
+        <v>1.024905795792697</v>
+      </c>
+      <c r="E28">
+        <v>0.9792717911512039</v>
+      </c>
+      <c r="F28">
+        <v>1.00943197600072</v>
+      </c>
+      <c r="G28">
+        <v>1.009357833810903</v>
+      </c>
+      <c r="H28">
+        <v>0.9622053313787445</v>
+      </c>
+      <c r="I28">
+        <v>1.009612155519582</v>
+      </c>
+      <c r="J28">
+        <v>0.9622053313787445</v>
+      </c>
+      <c r="K28">
+        <v>1.009612155519582</v>
+      </c>
+      <c r="L28">
+        <v>1.009357833810903</v>
+      </c>
+      <c r="M28">
+        <v>0.985781582594824</v>
+      </c>
+      <c r="N28">
+        <v>0.985781582594824</v>
+      </c>
+      <c r="O28">
+        <v>0.9836116521136172</v>
+      </c>
+      <c r="P28">
+        <v>0.9937251069030767</v>
+      </c>
+      <c r="Q28">
+        <v>0.9937251069030767</v>
+      </c>
+      <c r="R28">
+        <v>0.997696869057203</v>
+      </c>
+      <c r="S28">
+        <v>0.997696869057203</v>
+      </c>
+      <c r="T28">
+        <v>0.9991308139423086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.007802550101733</v>
+      </c>
+      <c r="D29">
+        <v>1.020436317065281</v>
+      </c>
+      <c r="E29">
+        <v>0.9830477896149898</v>
+      </c>
+      <c r="F29">
+        <v>1.007710679441631</v>
+      </c>
+      <c r="G29">
+        <v>1.007672877159959</v>
+      </c>
+      <c r="H29">
+        <v>0.9691232333162775</v>
+      </c>
+      <c r="I29">
+        <v>1.007802550101733</v>
+      </c>
+      <c r="J29">
+        <v>0.9691232333162775</v>
+      </c>
+      <c r="K29">
+        <v>1.007802550101733</v>
+      </c>
+      <c r="L29">
+        <v>1.007672877159959</v>
+      </c>
+      <c r="M29">
+        <v>0.9883980552381182</v>
+      </c>
+      <c r="N29">
+        <v>0.9883980552381182</v>
+      </c>
+      <c r="O29">
+        <v>0.9866146333637421</v>
+      </c>
+      <c r="P29">
+        <v>0.9948662201926565</v>
+      </c>
+      <c r="Q29">
+        <v>0.9948662201926565</v>
+      </c>
+      <c r="R29">
+        <v>0.9981003026699256</v>
+      </c>
+      <c r="S29">
+        <v>0.9981003026699256</v>
+      </c>
+      <c r="T29">
+        <v>0.999298907783312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.004159986636541</v>
+      </c>
+      <c r="D30">
+        <v>1.011428517370633</v>
+      </c>
+      <c r="E30">
+        <v>0.9906549472180681</v>
+      </c>
+      <c r="F30">
+        <v>1.004243107246161</v>
+      </c>
+      <c r="G30">
+        <v>1.004277313087512</v>
+      </c>
+      <c r="H30">
+        <v>0.9830583591543673</v>
+      </c>
+      <c r="I30">
+        <v>1.004159986636541</v>
+      </c>
+      <c r="J30">
+        <v>0.9830583591543673</v>
+      </c>
+      <c r="K30">
+        <v>1.004159986636541</v>
+      </c>
+      <c r="L30">
+        <v>1.004277313087512</v>
+      </c>
+      <c r="M30">
+        <v>0.9936678361209396</v>
+      </c>
+      <c r="N30">
+        <v>0.9936678361209396</v>
+      </c>
+      <c r="O30">
+        <v>0.9926635398199825</v>
+      </c>
+      <c r="P30">
+        <v>0.9971652196261401</v>
+      </c>
+      <c r="Q30">
+        <v>0.9971652196261401</v>
+      </c>
+      <c r="R30">
+        <v>0.9989139113787404</v>
+      </c>
+      <c r="S30">
+        <v>0.9989139113787404</v>
+      </c>
+      <c r="T30">
+        <v>0.9996370384522137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="D31">
+        <v>1.012558506876013</v>
+      </c>
+      <c r="E31">
+        <v>0.9897583359943053</v>
+      </c>
+      <c r="F31">
+        <v>1.004648669412835</v>
+      </c>
+      <c r="G31">
+        <v>1.00469748000417</v>
+      </c>
+      <c r="H31">
+        <v>0.9814492370857055</v>
+      </c>
+      <c r="I31">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="J31">
+        <v>0.9814492370857055</v>
+      </c>
+      <c r="K31">
+        <v>1.004530071529333</v>
+      </c>
+      <c r="L31">
+        <v>1.00469748000417</v>
+      </c>
+      <c r="M31">
+        <v>0.9930733585449378</v>
+      </c>
+      <c r="N31">
+        <v>0.9930733585449378</v>
+      </c>
+      <c r="O31">
+        <v>0.9919683510280604</v>
+      </c>
+      <c r="P31">
+        <v>0.9968922628730695</v>
+      </c>
+      <c r="Q31">
+        <v>0.9968922628730695</v>
+      </c>
+      <c r="R31">
+        <v>0.9988017150371356</v>
+      </c>
+      <c r="S31">
+        <v>0.9988017150371356</v>
+      </c>
+      <c r="T31">
+        <v>0.9996070501503937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.011270174794521</v>
+      </c>
+      <c r="D32">
+        <v>1.028994020547946</v>
+      </c>
+      <c r="E32">
+        <v>0.9758160487671234</v>
+      </c>
+      <c r="F32">
+        <v>1.011007383561644</v>
+      </c>
+      <c r="G32">
+        <v>1.01089924589041</v>
+      </c>
+      <c r="H32">
+        <v>0.9558730956164384</v>
+      </c>
+      <c r="I32">
+        <v>1.011270174794521</v>
+      </c>
+      <c r="J32">
+        <v>0.9558730956164384</v>
+      </c>
+      <c r="K32">
+        <v>1.011270174794521</v>
+      </c>
+      <c r="L32">
+        <v>1.01089924589041</v>
+      </c>
+      <c r="M32">
+        <v>0.9833861707534244</v>
+      </c>
+      <c r="N32">
+        <v>0.9833861707534244</v>
+      </c>
+      <c r="O32">
+        <v>0.9808627967579907</v>
+      </c>
+      <c r="P32">
+        <v>0.992680838767123</v>
+      </c>
+      <c r="Q32">
+        <v>0.9926808387671232</v>
+      </c>
+      <c r="R32">
+        <v>0.9973281727739725</v>
+      </c>
+      <c r="S32">
+        <v>0.9973281727739725</v>
+      </c>
+      <c r="T32">
+        <v>0.9989766615296803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.00098809631579</v>
+      </c>
+      <c r="D33">
+        <v>1.002501201578947</v>
+      </c>
+      <c r="E33">
+        <v>0.9979032152631578</v>
+      </c>
+      <c r="F33">
+        <v>1.000954932631579</v>
+      </c>
+      <c r="G33">
+        <v>1.000941296842105</v>
+      </c>
+      <c r="H33">
+        <v>0.9961679636842106</v>
+      </c>
+      <c r="I33">
+        <v>1.00098809631579</v>
+      </c>
+      <c r="J33">
+        <v>0.9961679636842106</v>
+      </c>
+      <c r="K33">
+        <v>1.00098809631579</v>
+      </c>
+      <c r="L33">
+        <v>1.000941296842105</v>
+      </c>
+      <c r="M33">
+        <v>0.9985546302631578</v>
+      </c>
+      <c r="N33">
+        <v>0.9985546302631578</v>
+      </c>
+      <c r="O33">
+        <v>0.9983374919298246</v>
+      </c>
+      <c r="P33">
+        <v>0.9993657856140351</v>
+      </c>
+      <c r="Q33">
+        <v>0.9993657856140351</v>
+      </c>
+      <c r="R33">
+        <v>0.9997713632894737</v>
+      </c>
+      <c r="S33">
+        <v>0.9997713632894737</v>
+      </c>
+      <c r="T33">
+        <v>0.9999094510526317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="D34">
+        <v>1.013468976842105</v>
+      </c>
+      <c r="E34">
+        <v>0.989175435263158</v>
+      </c>
+      <c r="F34">
+        <v>1.004904264736842</v>
+      </c>
+      <c r="G34">
+        <v>1.005022017894737</v>
+      </c>
+      <c r="H34">
+        <v>0.980488906842105</v>
+      </c>
+      <c r="I34">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="J34">
+        <v>0.980488906842105</v>
+      </c>
+      <c r="K34">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="L34">
+        <v>1.005022017894737</v>
+      </c>
+      <c r="M34">
+        <v>0.9927554623684209</v>
+      </c>
+      <c r="N34">
+        <v>0.9927554623684209</v>
+      </c>
+      <c r="O34">
+        <v>0.9915621199999999</v>
+      </c>
+      <c r="P34">
+        <v>0.9967096891228069</v>
+      </c>
+      <c r="Q34">
+        <v>0.9967096891228069</v>
+      </c>
+      <c r="R34">
+        <v>0.9986868024999999</v>
+      </c>
+      <c r="S34">
+        <v>0.9986868024999999</v>
+      </c>
+      <c r="T34">
+        <v>0.9996129573684209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.016447016496586</v>
+      </c>
+      <c r="D35">
+        <v>1.045756639759774</v>
+      </c>
+      <c r="E35">
+        <v>0.9627233809906754</v>
+      </c>
+      <c r="F35">
+        <v>1.016917594565083</v>
+      </c>
+      <c r="G35">
+        <v>1.017111279368659</v>
+      </c>
+      <c r="H35">
+        <v>0.9325038443215957</v>
+      </c>
+      <c r="I35">
+        <v>1.016447016496586</v>
+      </c>
+      <c r="J35">
+        <v>0.9325038443215957</v>
+      </c>
+      <c r="K35">
+        <v>1.016447016496586</v>
+      </c>
+      <c r="L35">
+        <v>1.017111279368659</v>
+      </c>
+      <c r="M35">
+        <v>0.9748075618451275</v>
+      </c>
+      <c r="N35">
+        <v>0.9748075618451275</v>
+      </c>
+      <c r="O35">
+        <v>0.9707795015603101</v>
+      </c>
+      <c r="P35">
+        <v>0.9886873800622803</v>
+      </c>
+      <c r="Q35">
+        <v>0.9886873800622803</v>
+      </c>
+      <c r="R35">
+        <v>0.9956272891708566</v>
+      </c>
+      <c r="S35">
+        <v>0.9956272891708566</v>
+      </c>
+      <c r="T35">
+        <v>0.9985766259170622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="D36">
+        <v>1.000003805509835</v>
+      </c>
+      <c r="E36">
+        <v>0.9999955672556298</v>
+      </c>
+      <c r="F36">
+        <v>1.000002086735512</v>
+      </c>
+      <c r="G36">
+        <v>1.000001556132417</v>
+      </c>
+      <c r="H36">
+        <v>0.9999911723594185</v>
+      </c>
+      <c r="I36">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="J36">
+        <v>0.9999911723594185</v>
+      </c>
+      <c r="K36">
+        <v>1.000003377969717</v>
+      </c>
+      <c r="L36">
+        <v>1.000001556132417</v>
+      </c>
+      <c r="M36">
+        <v>0.9999963642459178</v>
+      </c>
+      <c r="N36">
+        <v>0.9999963642459178</v>
+      </c>
+      <c r="O36">
+        <v>0.9999960985824884</v>
+      </c>
+      <c r="P36">
+        <v>0.9999987021538509</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999987021538509</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998711078175</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998711078175</v>
+      </c>
+      <c r="T36">
+        <v>0.9999995943270883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="D37">
+        <v>1.000116845065069</v>
+      </c>
+      <c r="E37">
+        <v>0.9999072149764495</v>
+      </c>
+      <c r="F37">
+        <v>1.00004197337816</v>
+      </c>
+      <c r="G37">
+        <v>1.00004345328493</v>
+      </c>
+      <c r="H37">
+        <v>0.9998334327049919</v>
+      </c>
+      <c r="I37">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="J37">
+        <v>0.9998334327049919</v>
+      </c>
+      <c r="K37">
+        <v>1.000038381226689</v>
+      </c>
+      <c r="L37">
+        <v>1.00004345328493</v>
+      </c>
+      <c r="M37">
+        <v>0.9999384429949612</v>
+      </c>
+      <c r="N37">
+        <v>0.9999384429949612</v>
+      </c>
+      <c r="O37">
+        <v>0.9999280336554572</v>
+      </c>
+      <c r="P37">
+        <v>0.9999717557388705</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999717557388706</v>
+      </c>
+      <c r="R37">
+        <v>0.9999884121108253</v>
+      </c>
+      <c r="S37">
+        <v>0.9999884121108253</v>
+      </c>
+      <c r="T37">
+        <v>0.9999968834393819</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="D38">
+        <v>1.00038624305039</v>
+      </c>
+      <c r="E38">
+        <v>0.9996725507762912</v>
+      </c>
+      <c r="F38">
+        <v>1.000149329950734</v>
+      </c>
+      <c r="G38">
+        <v>1.000145725031724</v>
+      </c>
+      <c r="H38">
+        <v>0.9993994301368482</v>
+      </c>
+      <c r="I38">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="J38">
+        <v>0.9993994301368482</v>
+      </c>
+      <c r="K38">
+        <v>1.000158094547322</v>
+      </c>
+      <c r="L38">
+        <v>1.000145725031724</v>
+      </c>
+      <c r="M38">
+        <v>0.9997725775842858</v>
+      </c>
+      <c r="N38">
+        <v>0.9997725775842858</v>
+      </c>
+      <c r="O38">
+        <v>0.9997392353149542</v>
+      </c>
+      <c r="P38">
+        <v>0.9999010832386311</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999010832386311</v>
+      </c>
+      <c r="R38">
+        <v>0.9999653360658038</v>
+      </c>
+      <c r="S38">
+        <v>0.9999653360658038</v>
+      </c>
+      <c r="T38">
+        <v>0.9999852289155514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000385497309048</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000888304632702</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9992323698357467</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.00035085717029</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000336605211952</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9985837379535079</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000385497309048</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9985837379535079</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000385497309048</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000336605211952</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.99946017158273</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.99946017158273</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9993842376670689</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9997686134915026</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9997686134915026</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999228344458889</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999228344458889</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999628953522079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001627346445612</v>
+      </c>
+      <c r="D40">
+        <v>1.004027461462608</v>
+      </c>
+      <c r="E40">
+        <v>0.9965996271098161</v>
+      </c>
+      <c r="F40">
+        <v>1.00154994862772</v>
+      </c>
+      <c r="G40">
+        <v>1.001518099108545</v>
+      </c>
+      <c r="H40">
+        <v>0.9937715342258675</v>
+      </c>
+      <c r="I40">
+        <v>1.001627346445612</v>
+      </c>
+      <c r="J40">
+        <v>0.9937715342258675</v>
+      </c>
+      <c r="K40">
+        <v>1.001627346445612</v>
+      </c>
+      <c r="L40">
+        <v>1.001518099108545</v>
+      </c>
+      <c r="M40">
+        <v>0.9976448166672063</v>
+      </c>
+      <c r="N40">
+        <v>0.9976448166672063</v>
+      </c>
+      <c r="O40">
+        <v>0.9972964201480762</v>
+      </c>
+      <c r="P40">
+        <v>0.9989723265933416</v>
+      </c>
+      <c r="Q40">
+        <v>0.9989723265933416</v>
+      </c>
+      <c r="R40">
+        <v>0.9996360815564092</v>
+      </c>
+      <c r="S40">
+        <v>0.9996360815564092</v>
+      </c>
+      <c r="T40">
+        <v>0.9998490028300283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000279541795674</v>
+      </c>
+      <c r="D41">
+        <v>1.000795299509016</v>
+      </c>
+      <c r="E41">
+        <v>0.9993562950771318</v>
+      </c>
+      <c r="F41">
+        <v>1.000291901725485</v>
+      </c>
+      <c r="G41">
+        <v>1.000296989757131</v>
+      </c>
+      <c r="H41">
+        <v>0.9988369674142696</v>
+      </c>
+      <c r="I41">
+        <v>1.000279541795674</v>
+      </c>
+      <c r="J41">
+        <v>0.9988369674142696</v>
+      </c>
+      <c r="K41">
+        <v>1.000279541795674</v>
+      </c>
+      <c r="L41">
+        <v>1.000296989757131</v>
+      </c>
+      <c r="M41">
+        <v>0.9995669785857003</v>
+      </c>
+      <c r="N41">
+        <v>0.9995669785857003</v>
+      </c>
+      <c r="O41">
+        <v>0.9994967507495108</v>
+      </c>
+      <c r="P41">
+        <v>0.9998044996556916</v>
+      </c>
+      <c r="Q41">
+        <v>0.9998044996556916</v>
+      </c>
+      <c r="R41">
+        <v>0.9999232601906873</v>
+      </c>
+      <c r="S41">
+        <v>0.9999232601906873</v>
+      </c>
+      <c r="T41">
+        <v>0.9999761658797847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.00724856184858</v>
+      </c>
+      <c r="D42">
+        <v>1.019080671228065</v>
+      </c>
+      <c r="E42">
+        <v>0.9841964912600258</v>
+      </c>
+      <c r="F42">
+        <v>1.007186858100019</v>
+      </c>
+      <c r="G42">
+        <v>1.007161468686922</v>
+      </c>
+      <c r="H42">
+        <v>0.971229699647558</v>
+      </c>
+      <c r="I42">
+        <v>1.00724856184858</v>
+      </c>
+      <c r="J42">
+        <v>0.971229699647558</v>
+      </c>
+      <c r="K42">
+        <v>1.00724856184858</v>
+      </c>
+      <c r="L42">
+        <v>1.007161468686922</v>
+      </c>
+      <c r="M42">
+        <v>0.98919558416724</v>
+      </c>
+      <c r="N42">
+        <v>0.98919558416724</v>
+      </c>
+      <c r="O42">
+        <v>0.9875292198648352</v>
+      </c>
+      <c r="P42">
+        <v>0.9952132433943536</v>
+      </c>
+      <c r="Q42">
+        <v>0.9952132433943536</v>
+      </c>
+      <c r="R42">
+        <v>0.9982220730079103</v>
+      </c>
+      <c r="S42">
+        <v>0.9982220730079103</v>
+      </c>
+      <c r="T42">
+        <v>0.9993506251285283</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000494110223573</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="D3">
-        <v>0.9980613274803908</v>
+        <v>1.000216803596647</v>
       </c>
       <c r="E3">
-        <v>1.000479422257351</v>
+        <v>0.9998233462785215</v>
       </c>
       <c r="F3">
-        <v>1.000494110223573</v>
+        <v>1.000080173678027</v>
       </c>
       <c r="G3">
-        <v>1.001275665506103</v>
+        <v>1.000081078500773</v>
       </c>
       <c r="H3">
-        <v>0.9989371300473142</v>
+        <v>0.9996801147812138</v>
       </c>
       <c r="I3">
-        <v>1.000483703528748</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="J3">
-        <v>0.9980613274803908</v>
+        <v>0.9996801147812138</v>
       </c>
       <c r="K3">
-        <v>1.000494110223573</v>
+        <v>1.000077977527867</v>
       </c>
       <c r="L3">
-        <v>1.000479422257351</v>
+        <v>1.000081078500773</v>
       </c>
       <c r="M3">
-        <v>0.9992703748688707</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="N3">
-        <v>0.9992703748688707</v>
+        <v>0.9998805966409935</v>
       </c>
       <c r="O3">
-        <v>0.9991592932616852</v>
+        <v>0.9998615131868362</v>
       </c>
       <c r="P3">
-        <v>0.9996782866537713</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="Q3">
-        <v>0.9996782866537712</v>
+        <v>0.9999463902699515</v>
       </c>
       <c r="R3">
-        <v>0.9998822425462216</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="S3">
-        <v>0.9998822425462216</v>
+        <v>0.9999792870844304</v>
       </c>
       <c r="T3">
-        <v>0.9999552265072463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999932490605085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000953345806396</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="D4">
-        <v>0.9962577372339715</v>
+        <v>1.004027461462608</v>
       </c>
       <c r="E4">
-        <v>1.000925687899135</v>
+        <v>0.9965996271098161</v>
       </c>
       <c r="F4">
-        <v>1.000953345806396</v>
+        <v>1.00154994862772</v>
       </c>
       <c r="G4">
-        <v>1.002463232802966</v>
+        <v>1.001518099108545</v>
       </c>
       <c r="H4">
-        <v>0.9979481588522057</v>
+        <v>0.9937715342258675</v>
       </c>
       <c r="I4">
-        <v>1.000933748547277</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="J4">
-        <v>0.9962577372339715</v>
+        <v>0.9937715342258675</v>
       </c>
       <c r="K4">
-        <v>1.000953345806396</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="L4">
-        <v>1.000925687899135</v>
+        <v>1.001518099108545</v>
       </c>
       <c r="M4">
-        <v>0.9985917125665535</v>
+        <v>0.9976448166672063</v>
       </c>
       <c r="N4">
-        <v>0.9985917125665535</v>
+        <v>0.9976448166672063</v>
       </c>
       <c r="O4">
-        <v>0.9983771946617709</v>
+        <v>0.9972964201480762</v>
       </c>
       <c r="P4">
-        <v>0.9993789236465008</v>
+        <v>0.9989723265933416</v>
       </c>
       <c r="Q4">
-        <v>0.9993789236465008</v>
+        <v>0.9989723265933416</v>
       </c>
       <c r="R4">
-        <v>0.9997725291864745</v>
+        <v>0.9996360815564092</v>
       </c>
       <c r="S4">
-        <v>0.9997725291864745</v>
+        <v>0.9996360815564092</v>
       </c>
       <c r="T4">
-        <v>0.9999136518569918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998490028300283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001826105056012</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="D5">
-        <v>0.9928289483675267</v>
+        <v>1.013586162838613</v>
       </c>
       <c r="E5">
-        <v>1.001774234828855</v>
+        <v>0.9888898419668624</v>
       </c>
       <c r="F5">
-        <v>1.001826105056012</v>
+        <v>1.005044591577809</v>
       </c>
       <c r="G5">
-        <v>1.004721425393643</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="H5">
-        <v>0.9960679273612335</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="I5">
-        <v>1.001789355146591</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="J5">
-        <v>0.9928289483675267</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="K5">
-        <v>1.001826105056012</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="L5">
-        <v>1.001774234828855</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="M5">
-        <v>0.9973015915981907</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="N5">
-        <v>0.9973015915981907</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="O5">
-        <v>0.9968903701858717</v>
+        <v>0.9912775643059565</v>
       </c>
       <c r="P5">
-        <v>0.9988097627507978</v>
+        <v>0.9966298118948119</v>
       </c>
       <c r="Q5">
-        <v>0.9988097627507978</v>
+        <v>0.9966298118948121</v>
       </c>
       <c r="R5">
-        <v>0.9995638483271014</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="S5">
-        <v>0.9995638483271014</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="T5">
-        <v>0.9998346660256437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9995683386779534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002677668915991</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="D6">
-        <v>0.9894827554393714</v>
+        <v>1.045756639759774</v>
       </c>
       <c r="E6">
-        <v>1.002602446464443</v>
+        <v>0.9627233809906754</v>
       </c>
       <c r="F6">
-        <v>1.002677668915991</v>
+        <v>1.016917594565083</v>
       </c>
       <c r="G6">
-        <v>1.006925536629668</v>
+        <v>1.017111279368659</v>
       </c>
       <c r="H6">
-        <v>0.9942329221682713</v>
+        <v>0.9325038443215957</v>
       </c>
       <c r="I6">
-        <v>1.002624370036316</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="J6">
-        <v>0.9894827554393714</v>
+        <v>0.9325038443215957</v>
       </c>
       <c r="K6">
-        <v>1.002677668915991</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="L6">
-        <v>1.002602446464443</v>
+        <v>1.017111279368659</v>
       </c>
       <c r="M6">
-        <v>0.9960426009519072</v>
+        <v>0.9748075618451275</v>
       </c>
       <c r="N6">
-        <v>0.9960426009519072</v>
+        <v>0.9748075618451275</v>
       </c>
       <c r="O6">
-        <v>0.9954393746906952</v>
+        <v>0.9707795015603101</v>
       </c>
       <c r="P6">
-        <v>0.9982542902732684</v>
+        <v>0.9886873800622803</v>
       </c>
       <c r="Q6">
-        <v>0.9982542902732686</v>
+        <v>0.9886873800622803</v>
       </c>
       <c r="R6">
-        <v>0.9993601349339492</v>
+        <v>0.9956272891708566</v>
       </c>
       <c r="S6">
-        <v>0.9993601349339492</v>
+        <v>0.9956272891708566</v>
       </c>
       <c r="T6">
-        <v>0.9997576166090102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9985766259170622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000031698864526</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="D7">
-        <v>0.9998699745074197</v>
+        <v>1.001397080567509</v>
       </c>
       <c r="E7">
-        <v>1.000032954401727</v>
+        <v>0.9988366473608982</v>
       </c>
       <c r="F7">
-        <v>1.000031698864526</v>
+        <v>1.000529395188792</v>
       </c>
       <c r="G7">
-        <v>1.00008812123162</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="H7">
-        <v>0.9999281962065939</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="I7">
-        <v>1.000032587892326</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="J7">
-        <v>0.9998699745074197</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="K7">
-        <v>1.000031698864526</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="L7">
-        <v>1.000032954401727</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="M7">
-        <v>0.9999514644545733</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="N7">
-        <v>0.9999514644545733</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="O7">
-        <v>0.9999437083719135</v>
+        <v>0.9990800256874522</v>
       </c>
       <c r="P7">
-        <v>0.9999782092578907</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="Q7">
-        <v>0.9999782092578907</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="R7">
-        <v>0.9999915816595495</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="S7">
-        <v>0.9999915816595495</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="T7">
-        <v>0.9999972555173686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999511113386452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000077977527867</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="D8">
-        <v>0.9996801147812138</v>
+        <v>1.000116845065069</v>
       </c>
       <c r="E8">
-        <v>1.000081078500773</v>
+        <v>0.9999072149764495</v>
       </c>
       <c r="F8">
-        <v>1.000077977527867</v>
+        <v>1.00004197337816</v>
       </c>
       <c r="G8">
-        <v>1.000216803596647</v>
+        <v>1.00004345328493</v>
       </c>
       <c r="H8">
-        <v>0.9998233462785215</v>
+        <v>0.9998334327049919</v>
       </c>
       <c r="I8">
-        <v>1.000080173678027</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="J8">
-        <v>0.9996801147812138</v>
+        <v>0.9998334327049919</v>
       </c>
       <c r="K8">
-        <v>1.000077977527867</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="L8">
-        <v>1.000081078500773</v>
+        <v>1.00004345328493</v>
       </c>
       <c r="M8">
-        <v>0.9998805966409936</v>
+        <v>0.9999384429949612</v>
       </c>
       <c r="N8">
-        <v>0.9998805966409936</v>
+        <v>0.9999384429949612</v>
       </c>
       <c r="O8">
-        <v>0.9998615131868362</v>
+        <v>0.9999280336554572</v>
       </c>
       <c r="P8">
-        <v>0.9999463902699514</v>
+        <v>0.9999717557388705</v>
       </c>
       <c r="Q8">
-        <v>0.9999463902699514</v>
+        <v>0.9999717557388706</v>
       </c>
       <c r="R8">
-        <v>0.9999792870844302</v>
+        <v>0.9999884121108253</v>
       </c>
       <c r="S8">
-        <v>0.9999792870844302</v>
+        <v>0.9999884121108253</v>
       </c>
       <c r="T8">
-        <v>0.9999932490605082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999968834393819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000104494766218</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="D9">
-        <v>0.9995714855552978</v>
+        <v>1.002463232802966</v>
       </c>
       <c r="E9">
-        <v>1.000108590773229</v>
+        <v>0.9979481588522058</v>
       </c>
       <c r="F9">
-        <v>1.000104494766218</v>
+        <v>1.000933748547277</v>
       </c>
       <c r="G9">
-        <v>1.000290360510107</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="H9">
-        <v>0.9997633699305497</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="I9">
-        <v>1.000107396502208</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="J9">
-        <v>0.9995714855552978</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="K9">
-        <v>1.000104494766218</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="L9">
-        <v>1.000108590773229</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="M9">
-        <v>0.9998400381642634</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="N9">
-        <v>0.9998400381642634</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="O9">
-        <v>0.9998144820863587</v>
+        <v>0.9983771946617709</v>
       </c>
       <c r="P9">
-        <v>0.999928190364915</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="Q9">
-        <v>0.9999281903649151</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="R9">
-        <v>0.9999722664652408</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="S9">
-        <v>0.9999722664652408</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="T9">
-        <v>0.9999909496729349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999136518569919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000229668901211</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="D10">
-        <v>0.9990583303217252</v>
+        <v>1.046446877379294</v>
       </c>
       <c r="E10">
-        <v>1.000238608652331</v>
+        <v>0.9621686665511567</v>
       </c>
       <c r="F10">
-        <v>1.000229668901211</v>
+        <v>1.017168917682716</v>
       </c>
       <c r="G10">
-        <v>1.00063799808295</v>
+        <v>1.017368639475932</v>
       </c>
       <c r="H10">
-        <v>0.9994800138541357</v>
+        <v>0.9315039857650657</v>
       </c>
       <c r="I10">
-        <v>1.000236001994208</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="J10">
-        <v>0.9990583303217252</v>
+        <v>0.9315039857650657</v>
       </c>
       <c r="K10">
-        <v>1.000229668901211</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="L10">
-        <v>1.000238608652331</v>
+        <v>1.017368639475932</v>
       </c>
       <c r="M10">
-        <v>0.999648469487028</v>
+        <v>0.9744363126204987</v>
       </c>
       <c r="N10">
-        <v>0.999648469487028</v>
+        <v>0.9744363126204987</v>
       </c>
       <c r="O10">
-        <v>0.9995923176093973</v>
+        <v>0.9703470972640513</v>
       </c>
       <c r="P10">
-        <v>0.9998422026250889</v>
+        <v>0.9885187650190611</v>
       </c>
       <c r="Q10">
-        <v>0.9998422026250889</v>
+        <v>0.9885187650190611</v>
       </c>
       <c r="R10">
-        <v>0.9999390691941195</v>
+        <v>0.9955599912183424</v>
       </c>
       <c r="S10">
-        <v>0.9999390691941195</v>
+        <v>0.9955599912183424</v>
       </c>
       <c r="T10">
-        <v>0.9999801036344268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9985567927783916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000370255944929</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="D11">
-        <v>0.9984826930834566</v>
+        <v>1.007453239243308</v>
       </c>
       <c r="E11">
-        <v>1.000384365893127</v>
+        <v>0.9937915508016348</v>
       </c>
       <c r="F11">
-        <v>1.000370255944929</v>
+        <v>1.00282533429946</v>
       </c>
       <c r="G11">
-        <v>1.001027671118211</v>
+        <v>1.00280093917201</v>
       </c>
       <c r="H11">
-        <v>0.9991622201675352</v>
+        <v>0.9886766992121383</v>
       </c>
       <c r="I11">
-        <v>1.000380250990533</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="J11">
-        <v>0.9984826930834566</v>
+        <v>0.9886766992121383</v>
       </c>
       <c r="K11">
-        <v>1.000370255944929</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="L11">
-        <v>1.000384365893127</v>
+        <v>1.00280093917201</v>
       </c>
       <c r="M11">
-        <v>0.9994335294882917</v>
+        <v>0.995738819192074</v>
       </c>
       <c r="N11">
-        <v>0.9994335294882917</v>
+        <v>0.995738819192074</v>
       </c>
       <c r="O11">
-        <v>0.9993430930480395</v>
+        <v>0.9950897297285942</v>
       </c>
       <c r="P11">
-        <v>0.9997457716405042</v>
+        <v>0.998120752596737</v>
       </c>
       <c r="Q11">
-        <v>0.9997457716405039</v>
+        <v>0.998120752596737</v>
       </c>
       <c r="R11">
-        <v>0.9999018927166102</v>
+        <v>0.9993117192990686</v>
       </c>
       <c r="S11">
-        <v>0.9999018927166102</v>
+        <v>0.9993117192990686</v>
       </c>
       <c r="T11">
-        <v>0.9999679095329652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9997387303557691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9968322276474076</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="D12">
-        <v>1.013556224439598</v>
+        <v>1.014071693968421</v>
       </c>
       <c r="E12">
-        <v>0.9964880066287487</v>
+        <v>0.9885413982421077</v>
       </c>
       <c r="F12">
-        <v>0.9968322276474076</v>
+        <v>1.005200074294735</v>
       </c>
       <c r="G12">
-        <v>0.9905691250984633</v>
+        <v>1.005261768915788</v>
       </c>
       <c r="H12">
-        <v>1.00753559308632</v>
+        <v>0.9792552165894739</v>
       </c>
       <c r="I12">
-        <v>0.9965883628031168</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="J12">
-        <v>1.013556224439598</v>
+        <v>0.9792552165894739</v>
       </c>
       <c r="K12">
-        <v>0.9968322276474076</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="L12">
-        <v>0.9964880066287487</v>
+        <v>1.005261768915788</v>
       </c>
       <c r="M12">
-        <v>1.005022115534173</v>
+        <v>0.9922584927526311</v>
       </c>
       <c r="N12">
-        <v>1.005022115534173</v>
+        <v>0.9922584927526311</v>
       </c>
       <c r="O12">
-        <v>1.005859941384889</v>
+        <v>0.9910194612491233</v>
       </c>
       <c r="P12">
-        <v>1.002292152905251</v>
+        <v>0.9965223841298245</v>
       </c>
       <c r="Q12">
-        <v>1.002292152905252</v>
+        <v>0.9965223841298245</v>
       </c>
       <c r="R12">
-        <v>1.000927171590791</v>
+        <v>0.9986543298184212</v>
       </c>
       <c r="S12">
-        <v>1.000927171590791</v>
+        <v>0.9986543298184212</v>
       </c>
       <c r="T12">
-        <v>1.000261589950609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9995633864824561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9990044525379738</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="D13">
-        <v>1.003605760467463</v>
+        <v>0.9909528404853495</v>
       </c>
       <c r="E13">
-        <v>0.9991508431319361</v>
+        <v>1.007443146634476</v>
       </c>
       <c r="F13">
-        <v>0.9990044525379738</v>
+        <v>0.9966179078987478</v>
       </c>
       <c r="G13">
-        <v>0.9977634669739773</v>
+        <v>0.9966093990986991</v>
       </c>
       <c r="H13">
-        <v>1.001949287928831</v>
+        <v>1.013520711522407</v>
       </c>
       <c r="I13">
-        <v>0.9991081617959521</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="J13">
-        <v>1.003605760467463</v>
+        <v>1.013520711522407</v>
       </c>
       <c r="K13">
-        <v>0.9990044525379738</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="L13">
-        <v>0.9991508431319361</v>
+        <v>0.9966093990986991</v>
       </c>
       <c r="M13">
-        <v>1.0013783017997</v>
+        <v>1.005065055310553</v>
       </c>
       <c r="N13">
-        <v>1.0013783017997</v>
+        <v>1.005065055310553</v>
       </c>
       <c r="O13">
-        <v>1.00156863050941</v>
+        <v>1.005857752418527</v>
       </c>
       <c r="P13">
-        <v>1.000587018712458</v>
+        <v>1.002256232194485</v>
       </c>
       <c r="Q13">
-        <v>1.000587018712458</v>
+        <v>1.002256232194485</v>
       </c>
       <c r="R13">
-        <v>1.000191377168837</v>
+        <v>1.000851820636452</v>
       </c>
       <c r="S13">
-        <v>1.000191377168837</v>
+        <v>1.000851820636452</v>
       </c>
       <c r="T13">
-        <v>1.000096995472689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000297098600338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9900358477152421</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="D14">
-        <v>1.040253016084317</v>
+        <v>1.080269000000001</v>
       </c>
       <c r="E14">
-        <v>0.9898816838310925</v>
+        <v>0.9346391799999993</v>
       </c>
       <c r="F14">
-        <v>0.9900358477152421</v>
+        <v>1.029661500000002</v>
       </c>
       <c r="G14">
-        <v>0.9729884594911625</v>
+        <v>1.030014399999999</v>
       </c>
       <c r="H14">
-        <v>1.022174853850979</v>
+        <v>0.8816714299999989</v>
       </c>
       <c r="I14">
-        <v>0.9899266303380641</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="J14">
-        <v>1.040253016084317</v>
+        <v>0.8816714299999989</v>
       </c>
       <c r="K14">
-        <v>0.9900358477152421</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="L14">
-        <v>0.9898816838310925</v>
+        <v>1.030014399999999</v>
       </c>
       <c r="M14">
-        <v>1.015067349957705</v>
+        <v>0.9558429149999992</v>
       </c>
       <c r="N14">
-        <v>1.015067349957705</v>
+        <v>0.9558429149999992</v>
       </c>
       <c r="O14">
-        <v>1.017436517922129</v>
+        <v>0.9487750033333325</v>
       </c>
       <c r="P14">
-        <v>1.006723515876884</v>
+        <v>0.9801633099999997</v>
       </c>
       <c r="Q14">
-        <v>1.006723515876884</v>
+        <v>0.9801633099999997</v>
       </c>
       <c r="R14">
-        <v>1.002551598836473</v>
+        <v>0.9923235075000001</v>
       </c>
       <c r="S14">
-        <v>1.002551598836473</v>
+        <v>0.9923235075000001</v>
       </c>
       <c r="T14">
-        <v>1.00087674855181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9975099350000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9972920549189415</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="D15">
-        <v>1.010658170748781</v>
+        <v>0.9990985000000001</v>
       </c>
       <c r="E15">
-        <v>0.9973595655156353</v>
+        <v>1.0008542</v>
       </c>
       <c r="F15">
-        <v>0.9972920549189415</v>
+        <v>0.9996056</v>
       </c>
       <c r="G15">
-        <v>0.9929717101565173</v>
+        <v>0.99965085</v>
       </c>
       <c r="H15">
-        <v>1.005846372533538</v>
+        <v>1.0016183</v>
       </c>
       <c r="I15">
-        <v>0.9973398846491768</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="J15">
-        <v>1.010658170748781</v>
+        <v>1.0016183</v>
       </c>
       <c r="K15">
-        <v>0.9972920549189415</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="L15">
-        <v>0.9973595655156353</v>
+        <v>0.99965085</v>
       </c>
       <c r="M15">
-        <v>1.004008868132208</v>
+        <v>1.000634575</v>
       </c>
       <c r="N15">
-        <v>1.004008868132208</v>
+        <v>1.000634575</v>
       </c>
       <c r="O15">
-        <v>1.004621369599318</v>
+        <v>1.000707783333333</v>
       </c>
       <c r="P15">
-        <v>1.001769930394453</v>
+        <v>1.00025493</v>
       </c>
       <c r="Q15">
-        <v>1.001769930394453</v>
+        <v>1.00025493</v>
       </c>
       <c r="R15">
-        <v>1.000650461525575</v>
+        <v>1.0000651075</v>
       </c>
       <c r="S15">
-        <v>1.000650461525575</v>
+        <v>1.0000651075</v>
       </c>
       <c r="T15">
-        <v>1.000244626420432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.000053848333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000003377969717</v>
+        <v>1.012634</v>
       </c>
       <c r="D16">
-        <v>0.9999911723594185</v>
+        <v>1.0301398</v>
       </c>
       <c r="E16">
-        <v>1.000001556132417</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F16">
-        <v>1.000003377969717</v>
+        <v>1.0117535</v>
       </c>
       <c r="G16">
-        <v>1.000003805509835</v>
+        <v>1.0113912</v>
       </c>
       <c r="H16">
-        <v>0.9999955672556298</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I16">
-        <v>1.000002086735512</v>
+        <v>1.012634</v>
       </c>
       <c r="J16">
-        <v>0.9999911723594185</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K16">
-        <v>1.000003377969717</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>1.000001556132417</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>0.9999963642459178</v>
+        <v>0.9820255</v>
       </c>
       <c r="N16">
-        <v>0.9999963642459178</v>
+        <v>0.9820255</v>
       </c>
       <c r="O16">
-        <v>0.9999960985824884</v>
+        <v>0.97943384</v>
       </c>
       <c r="P16">
-        <v>0.9999987021538509</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999987021538509</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R16">
-        <v>0.9999998711078175</v>
+        <v>0.99732975</v>
       </c>
       <c r="S16">
-        <v>0.9999998711078175</v>
+        <v>0.99732975</v>
       </c>
       <c r="T16">
-        <v>0.9999995943270883</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000038381226689</v>
+        <v>0.98484691</v>
       </c>
       <c r="D17">
-        <v>0.9998334327049919</v>
+        <v>0.9598697299999999</v>
       </c>
       <c r="E17">
-        <v>1.00004345328493</v>
+        <v>1.0331767</v>
       </c>
       <c r="F17">
-        <v>1.000038381226689</v>
+        <v>0.98491583</v>
       </c>
       <c r="G17">
-        <v>1.000116845065069</v>
+        <v>0.9849442</v>
       </c>
       <c r="H17">
-        <v>0.9999072149764497</v>
+        <v>1.0603622</v>
       </c>
       <c r="I17">
-        <v>1.00004197337816</v>
+        <v>0.98484691</v>
       </c>
       <c r="J17">
-        <v>0.9998334327049919</v>
+        <v>1.0603622</v>
       </c>
       <c r="K17">
-        <v>1.000038381226689</v>
+        <v>0.98484691</v>
       </c>
       <c r="L17">
-        <v>1.00004345328493</v>
+        <v>0.9849442</v>
       </c>
       <c r="M17">
-        <v>0.9999384429949612</v>
+        <v>1.0226532</v>
       </c>
       <c r="N17">
-        <v>0.9999384429949612</v>
+        <v>1.0226532</v>
       </c>
       <c r="O17">
-        <v>0.9999280336554573</v>
+        <v>1.026161033333333</v>
       </c>
       <c r="P17">
-        <v>0.9999717557388705</v>
+        <v>1.010051103333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999717557388706</v>
+        <v>1.010051103333333</v>
       </c>
       <c r="R17">
-        <v>0.9999884121108253</v>
+        <v>1.003750055</v>
       </c>
       <c r="S17">
-        <v>0.9999884121108253</v>
+        <v>1.003750055</v>
       </c>
       <c r="T17">
-        <v>0.9999968834393819</v>
+        <v>1.001352595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000158094547322</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="D18">
-        <v>0.9993994301368482</v>
+        <v>1.028994020547946</v>
       </c>
       <c r="E18">
-        <v>1.000145725031723</v>
+        <v>0.9758160487671234</v>
       </c>
       <c r="F18">
-        <v>1.000158094547322</v>
+        <v>1.011007383561644</v>
       </c>
       <c r="G18">
-        <v>1.000386243050389</v>
+        <v>1.01089924589041</v>
       </c>
       <c r="H18">
-        <v>0.999672550776291</v>
+        <v>0.9558730956164384</v>
       </c>
       <c r="I18">
-        <v>1.000149329950734</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="J18">
-        <v>0.9993994301368482</v>
+        <v>0.9558730956164384</v>
       </c>
       <c r="K18">
-        <v>1.000158094547322</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="L18">
-        <v>1.000145725031723</v>
+        <v>1.01089924589041</v>
       </c>
       <c r="M18">
-        <v>0.9997725775842858</v>
+        <v>0.9833861707534244</v>
       </c>
       <c r="N18">
-        <v>0.9997725775842858</v>
+        <v>0.9833861707534244</v>
       </c>
       <c r="O18">
-        <v>0.9997392353149542</v>
+        <v>0.9808627967579907</v>
       </c>
       <c r="P18">
-        <v>0.9999010832386311</v>
+        <v>0.992680838767123</v>
       </c>
       <c r="Q18">
-        <v>0.9999010832386311</v>
+        <v>0.9926808387671232</v>
       </c>
       <c r="R18">
-        <v>0.9999653360658038</v>
+        <v>0.9973281727739725</v>
       </c>
       <c r="S18">
-        <v>0.9999653360658038</v>
+        <v>0.9973281727739725</v>
       </c>
       <c r="T18">
-        <v>0.9999852289155514</v>
+        <v>0.9989766615296803</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000385497309048</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="D19">
-        <v>0.9985837379535079</v>
+        <v>1.002501201578947</v>
       </c>
       <c r="E19">
-        <v>1.000336605211952</v>
+        <v>0.9979032152631578</v>
       </c>
       <c r="F19">
-        <v>1.000385497309048</v>
+        <v>1.000954932631579</v>
       </c>
       <c r="G19">
-        <v>1.000888304632702</v>
+        <v>1.000941296842105</v>
       </c>
       <c r="H19">
-        <v>0.9992323698357467</v>
+        <v>0.9961679636842106</v>
       </c>
       <c r="I19">
-        <v>1.00035085717029</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="J19">
-        <v>0.9985837379535079</v>
+        <v>0.9961679636842106</v>
       </c>
       <c r="K19">
-        <v>1.000385497309048</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="L19">
-        <v>1.000336605211952</v>
+        <v>1.000941296842105</v>
       </c>
       <c r="M19">
-        <v>0.99946017158273</v>
+        <v>0.9985546302631578</v>
       </c>
       <c r="N19">
-        <v>0.99946017158273</v>
+        <v>0.9985546302631578</v>
       </c>
       <c r="O19">
-        <v>0.9993842376670689</v>
+        <v>0.9983374919298246</v>
       </c>
       <c r="P19">
-        <v>0.9997686134915026</v>
+        <v>0.9993657856140351</v>
       </c>
       <c r="Q19">
-        <v>0.9997686134915026</v>
+        <v>0.9993657856140351</v>
       </c>
       <c r="R19">
-        <v>0.9999228344458889</v>
+        <v>0.9997713632894737</v>
       </c>
       <c r="S19">
-        <v>0.9999228344458889</v>
+        <v>0.9997713632894737</v>
       </c>
       <c r="T19">
-        <v>0.9999628953522079</v>
+        <v>0.9999094510526317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="D20">
+        <v>1.013468976842105</v>
+      </c>
+      <c r="E20">
+        <v>0.989175435263158</v>
+      </c>
+      <c r="F20">
+        <v>1.004904264736842</v>
+      </c>
+      <c r="G20">
+        <v>1.005022017894737</v>
+      </c>
+      <c r="H20">
+        <v>0.980488906842105</v>
+      </c>
+      <c r="I20">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="J20">
+        <v>0.980488906842105</v>
+      </c>
+      <c r="K20">
+        <v>1.004618142631579</v>
+      </c>
+      <c r="L20">
+        <v>1.005022017894737</v>
+      </c>
+      <c r="M20">
+        <v>0.9927554623684209</v>
+      </c>
+      <c r="N20">
+        <v>0.9927554623684209</v>
+      </c>
+      <c r="O20">
+        <v>0.9915621199999999</v>
+      </c>
+      <c r="P20">
+        <v>0.9967096891228069</v>
+      </c>
+      <c r="Q20">
+        <v>0.9967096891228069</v>
+      </c>
+      <c r="R20">
+        <v>0.9986868024999999</v>
+      </c>
+      <c r="S20">
+        <v>0.9986868024999999</v>
+      </c>
+      <c r="T20">
+        <v>0.9996129573684209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="D21">
+        <v>0.9729884594911625</v>
+      </c>
+      <c r="E21">
+        <v>1.022174853850979</v>
+      </c>
+      <c r="F21">
+        <v>0.9899266303380642</v>
+      </c>
+      <c r="G21">
+        <v>0.9898816838310925</v>
+      </c>
+      <c r="H21">
+        <v>1.040253016084317</v>
+      </c>
+      <c r="I21">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="J21">
+        <v>1.040253016084317</v>
+      </c>
+      <c r="K21">
+        <v>0.9900358477152421</v>
+      </c>
+      <c r="L21">
+        <v>0.9898816838310925</v>
+      </c>
+      <c r="M21">
+        <v>1.015067349957705</v>
+      </c>
+      <c r="N21">
+        <v>1.015067349957705</v>
+      </c>
+      <c r="O21">
+        <v>1.017436517922129</v>
+      </c>
+      <c r="P21">
+        <v>1.006723515876884</v>
+      </c>
+      <c r="Q21">
+        <v>1.006723515876884</v>
+      </c>
+      <c r="R21">
+        <v>1.002551598836473</v>
+      </c>
+      <c r="S21">
+        <v>1.002551598836473</v>
+      </c>
+      <c r="T21">
+        <v>1.00087674855181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="D22">
+        <v>0.9929717101565173</v>
+      </c>
+      <c r="E22">
+        <v>1.005846372533538</v>
+      </c>
+      <c r="F22">
+        <v>0.9973398846491768</v>
+      </c>
+      <c r="G22">
+        <v>0.9973595655156353</v>
+      </c>
+      <c r="H22">
+        <v>1.010658170748781</v>
+      </c>
+      <c r="I22">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="J22">
+        <v>1.010658170748781</v>
+      </c>
+      <c r="K22">
+        <v>0.9972920549189415</v>
+      </c>
+      <c r="L22">
+        <v>0.9973595655156353</v>
+      </c>
+      <c r="M22">
+        <v>1.004008868132208</v>
+      </c>
+      <c r="N22">
+        <v>1.004008868132208</v>
+      </c>
+      <c r="O22">
+        <v>1.004621369599318</v>
+      </c>
+      <c r="P22">
+        <v>1.001769930394453</v>
+      </c>
+      <c r="Q22">
+        <v>1.001769930394453</v>
+      </c>
+      <c r="R22">
+        <v>1.000650461525575</v>
+      </c>
+      <c r="S22">
+        <v>1.000650461525575</v>
+      </c>
+      <c r="T22">
+        <v>1.000244626420432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="D23">
+        <v>0.9905691250984633</v>
+      </c>
+      <c r="E23">
+        <v>1.00753559308632</v>
+      </c>
+      <c r="F23">
+        <v>0.9965883628031168</v>
+      </c>
+      <c r="G23">
+        <v>0.9964880066287487</v>
+      </c>
+      <c r="H23">
+        <v>1.013556224439598</v>
+      </c>
+      <c r="I23">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="J23">
+        <v>1.013556224439598</v>
+      </c>
+      <c r="K23">
+        <v>0.9968322276474076</v>
+      </c>
+      <c r="L23">
+        <v>0.9964880066287487</v>
+      </c>
+      <c r="M23">
+        <v>1.005022115534173</v>
+      </c>
+      <c r="N23">
+        <v>1.005022115534173</v>
+      </c>
+      <c r="O23">
+        <v>1.005859941384889</v>
+      </c>
+      <c r="P23">
+        <v>1.002292152905251</v>
+      </c>
+      <c r="Q23">
+        <v>1.002292152905252</v>
+      </c>
+      <c r="R23">
+        <v>1.000927171590791</v>
+      </c>
+      <c r="S23">
+        <v>1.000927171590791</v>
+      </c>
+      <c r="T23">
+        <v>1.000261589950609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="D24">
+        <v>0.9977634669739772</v>
+      </c>
+      <c r="E24">
+        <v>1.001949287928831</v>
+      </c>
+      <c r="F24">
+        <v>0.9991081617959522</v>
+      </c>
+      <c r="G24">
+        <v>0.9991508431319363</v>
+      </c>
+      <c r="H24">
+        <v>1.003605760467463</v>
+      </c>
+      <c r="I24">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="J24">
+        <v>1.003605760467463</v>
+      </c>
+      <c r="K24">
+        <v>0.9990044525379738</v>
+      </c>
+      <c r="L24">
+        <v>0.9991508431319363</v>
+      </c>
+      <c r="M24">
+        <v>1.0013783017997</v>
+      </c>
+      <c r="N24">
+        <v>1.0013783017997</v>
+      </c>
+      <c r="O24">
+        <v>1.00156863050941</v>
+      </c>
+      <c r="P24">
+        <v>1.000587018712458</v>
+      </c>
+      <c r="Q24">
+        <v>1.000587018712458</v>
+      </c>
+      <c r="R24">
+        <v>1.000191377168837</v>
+      </c>
+      <c r="S24">
+        <v>1.000191377168837</v>
+      </c>
+      <c r="T24">
+        <v>1.000096995472689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001567329292875</v>
+      </c>
+      <c r="D25">
+        <v>1.00339618158943</v>
+      </c>
+      <c r="E25">
+        <v>0.9970030946222684</v>
+      </c>
+      <c r="F25">
+        <v>1.00137308715489</v>
+      </c>
+      <c r="G25">
+        <v>1.00129315592029</v>
+      </c>
+      <c r="H25">
+        <v>0.9944357334591133</v>
+      </c>
+      <c r="I25">
+        <v>1.001567329292875</v>
+      </c>
+      <c r="J25">
+        <v>0.9944357334591133</v>
+      </c>
+      <c r="K25">
+        <v>1.001567329292875</v>
+      </c>
+      <c r="L25">
+        <v>1.00129315592029</v>
+      </c>
+      <c r="M25">
+        <v>0.9978644446897016</v>
+      </c>
+      <c r="N25">
+        <v>0.9978644446897016</v>
+      </c>
+      <c r="O25">
+        <v>0.9975773280005572</v>
+      </c>
+      <c r="P25">
+        <v>0.999098739557426</v>
+      </c>
+      <c r="Q25">
+        <v>0.9990987395574261</v>
+      </c>
+      <c r="R25">
+        <v>0.9997158869912883</v>
+      </c>
+      <c r="S25">
+        <v>0.9997158869912883</v>
+      </c>
+      <c r="T25">
+        <v>0.9998447636731447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000313963359868</v>
+      </c>
+      <c r="D26">
+        <v>1.0011703015333</v>
+      </c>
+      <c r="E26">
+        <v>0.9991174295135378</v>
+      </c>
+      <c r="F26">
+        <v>1.000396552757587</v>
+      </c>
+      <c r="G26">
+        <v>1.00043053169805</v>
+      </c>
+      <c r="H26">
+        <v>0.9984443785615899</v>
+      </c>
+      <c r="I26">
+        <v>1.000313963359868</v>
+      </c>
+      <c r="J26">
+        <v>0.9984443785615899</v>
+      </c>
+      <c r="K26">
+        <v>1.000313963359868</v>
+      </c>
+      <c r="L26">
+        <v>1.00043053169805</v>
+      </c>
+      <c r="M26">
+        <v>0.9994374551298202</v>
+      </c>
+      <c r="N26">
+        <v>0.9994374551298202</v>
+      </c>
+      <c r="O26">
+        <v>0.9993307799243927</v>
+      </c>
+      <c r="P26">
+        <v>0.999729624539836</v>
+      </c>
+      <c r="Q26">
+        <v>0.9997296245398358</v>
+      </c>
+      <c r="R26">
+        <v>0.9998757092448438</v>
+      </c>
+      <c r="S26">
+        <v>0.9998757092448438</v>
+      </c>
+      <c r="T26">
+        <v>0.9999788595706555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="D27">
+        <v>1.00470115792336</v>
+      </c>
+      <c r="E27">
+        <v>0.9961019296159253</v>
+      </c>
+      <c r="F27">
+        <v>1.001772925094582</v>
+      </c>
+      <c r="G27">
+        <v>1.001764921874513</v>
+      </c>
+      <c r="H27">
+        <v>0.9929009763220213</v>
+      </c>
+      <c r="I27">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="J27">
+        <v>0.9929009763220213</v>
+      </c>
+      <c r="K27">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="L27">
+        <v>1.001764921874513</v>
+      </c>
+      <c r="M27">
+        <v>0.997332949098267</v>
+      </c>
+      <c r="N27">
+        <v>0.997332949098267</v>
+      </c>
+      <c r="O27">
+        <v>0.9969226092708198</v>
+      </c>
+      <c r="P27">
+        <v>0.9988194668349116</v>
+      </c>
+      <c r="Q27">
+        <v>0.9988194668349116</v>
+      </c>
+      <c r="R27">
+        <v>0.9995627257032338</v>
+      </c>
+      <c r="S27">
+        <v>0.9995627257032338</v>
+      </c>
+      <c r="T27">
+        <v>0.9998390688564336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="D28">
+        <v>0.9985884406682108</v>
+      </c>
+      <c r="E28">
+        <v>1.001070196806328</v>
+      </c>
+      <c r="F28">
+        <v>0.9995187897717055</v>
+      </c>
+      <c r="G28">
+        <v>0.9994801345722419</v>
+      </c>
+      <c r="H28">
+        <v>1.001890022027909</v>
+      </c>
+      <c r="I28">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="J28">
+        <v>1.001890022027909</v>
+      </c>
+      <c r="K28">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="L28">
+        <v>0.9994801345722419</v>
+      </c>
+      <c r="M28">
+        <v>1.000685078300075</v>
+      </c>
+      <c r="N28">
+        <v>1.000685078300075</v>
+      </c>
+      <c r="O28">
+        <v>1.000813451135493</v>
+      </c>
+      <c r="P28">
+        <v>1.000327632680061</v>
+      </c>
+      <c r="Q28">
+        <v>1.000327632680061</v>
+      </c>
+      <c r="R28">
+        <v>1.000148909870054</v>
+      </c>
+      <c r="S28">
+        <v>1.000148909870054</v>
+      </c>
+      <c r="T28">
+        <v>1.000026720881071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9942206456430082</v>
+      </c>
+      <c r="D29">
+        <v>0.9839751032311813</v>
+      </c>
+      <c r="E29">
+        <v>1.01306783121768</v>
+      </c>
+      <c r="F29">
+        <v>0.994068563790513</v>
+      </c>
+      <c r="G29">
+        <v>0.994006001794132</v>
+      </c>
+      <c r="H29">
+        <v>1.023669372544147</v>
+      </c>
+      <c r="I29">
+        <v>0.9942206456430082</v>
+      </c>
+      <c r="J29">
+        <v>1.023669372544147</v>
+      </c>
+      <c r="K29">
+        <v>0.9942206456430082</v>
+      </c>
+      <c r="L29">
+        <v>0.994006001794132</v>
+      </c>
+      <c r="M29">
+        <v>1.00883768716914</v>
+      </c>
+      <c r="N29">
+        <v>1.00883768716914</v>
+      </c>
+      <c r="O29">
+        <v>1.01024773518532</v>
+      </c>
+      <c r="P29">
+        <v>1.003965339993762</v>
+      </c>
+      <c r="Q29">
+        <v>1.003965339993762</v>
+      </c>
+      <c r="R29">
+        <v>1.001529166406074</v>
+      </c>
+      <c r="S29">
+        <v>1.001529166406074</v>
+      </c>
+      <c r="T29">
+        <v>1.000501253036777</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001627346445612</v>
+        <v>1.004201500854564</v>
       </c>
       <c r="D4">
-        <v>1.004027461462608</v>
+        <v>1.011546002555322</v>
       </c>
       <c r="E4">
-        <v>0.9965996271098161</v>
+        <v>0.9905597087620074</v>
       </c>
       <c r="F4">
-        <v>1.00154994862772</v>
+        <v>1.004286300487985</v>
       </c>
       <c r="G4">
-        <v>1.001518099108545</v>
+        <v>1.004321199696019</v>
       </c>
       <c r="H4">
-        <v>0.9937715342258675</v>
+        <v>0.9828861998831718</v>
       </c>
       <c r="I4">
-        <v>1.001627346445612</v>
+        <v>1.004201500854564</v>
       </c>
       <c r="J4">
-        <v>0.9937715342258675</v>
+        <v>0.9828861998831718</v>
       </c>
       <c r="K4">
-        <v>1.001627346445612</v>
+        <v>1.004201500854564</v>
       </c>
       <c r="L4">
-        <v>1.001518099108545</v>
+        <v>1.004321199696019</v>
       </c>
       <c r="M4">
-        <v>0.9976448166672063</v>
+        <v>0.9936036997895954</v>
       </c>
       <c r="N4">
-        <v>0.9976448166672063</v>
+        <v>0.9936036997895954</v>
       </c>
       <c r="O4">
-        <v>0.9972964201480762</v>
+        <v>0.9925890361137327</v>
       </c>
       <c r="P4">
-        <v>0.9989723265933416</v>
+        <v>0.997136300144585</v>
       </c>
       <c r="Q4">
-        <v>0.9989723265933416</v>
+        <v>0.997136300144585</v>
       </c>
       <c r="R4">
-        <v>0.9996360815564092</v>
+        <v>0.9989026003220798</v>
       </c>
       <c r="S4">
-        <v>0.9996360815564092</v>
+        <v>0.9989026003220798</v>
       </c>
       <c r="T4">
-        <v>0.9998490028300283</v>
+        <v>0.9996334853731783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004946584733429</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="D5">
-        <v>1.013586162838613</v>
+        <v>1.008479339999648</v>
       </c>
       <c r="E5">
-        <v>0.9888898419668624</v>
+        <v>0.9932526761971201</v>
       </c>
       <c r="F5">
-        <v>1.005044591577809</v>
+        <v>1.003053156783667</v>
       </c>
       <c r="G5">
-        <v>1.005084927391929</v>
+        <v>1.003154841354327</v>
       </c>
       <c r="H5">
-        <v>0.9798579235590782</v>
+        <v>0.9878788843810128</v>
       </c>
       <c r="I5">
-        <v>1.004946584733429</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="J5">
-        <v>0.9798579235590782</v>
+        <v>0.9878788843810128</v>
       </c>
       <c r="K5">
-        <v>1.004946584733429</v>
+        <v>1.002806074128403</v>
       </c>
       <c r="L5">
-        <v>1.005084927391929</v>
+        <v>1.003154841354327</v>
       </c>
       <c r="M5">
-        <v>0.9924714254755036</v>
+        <v>0.9955168628676698</v>
       </c>
       <c r="N5">
-        <v>0.9924714254755036</v>
+        <v>0.9955168628676698</v>
       </c>
       <c r="O5">
-        <v>0.9912775643059565</v>
+        <v>0.9947621339774866</v>
       </c>
       <c r="P5">
-        <v>0.9966298118948119</v>
+        <v>0.9979465999545809</v>
       </c>
       <c r="Q5">
-        <v>0.9966298118948121</v>
+        <v>0.9979465999545809</v>
       </c>
       <c r="R5">
-        <v>0.9987090051044663</v>
+        <v>0.9991614684980364</v>
       </c>
       <c r="S5">
-        <v>0.9987090051044663</v>
+        <v>0.9991614684980364</v>
       </c>
       <c r="T5">
-        <v>0.9995683386779534</v>
+        <v>0.999770828807363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.016447016496586</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="D6">
-        <v>1.045756639759774</v>
+        <v>1.004027461462608</v>
       </c>
       <c r="E6">
-        <v>0.9627233809906754</v>
+        <v>0.9965996271098161</v>
       </c>
       <c r="F6">
-        <v>1.016917594565083</v>
+        <v>1.00154994862772</v>
       </c>
       <c r="G6">
-        <v>1.017111279368659</v>
+        <v>1.001518099108545</v>
       </c>
       <c r="H6">
-        <v>0.9325038443215957</v>
+        <v>0.9937715342258675</v>
       </c>
       <c r="I6">
-        <v>1.016447016496586</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="J6">
-        <v>0.9325038443215957</v>
+        <v>0.9937715342258675</v>
       </c>
       <c r="K6">
-        <v>1.016447016496586</v>
+        <v>1.001627346445612</v>
       </c>
       <c r="L6">
-        <v>1.017111279368659</v>
+        <v>1.001518099108545</v>
       </c>
       <c r="M6">
-        <v>0.9748075618451275</v>
+        <v>0.9976448166672063</v>
       </c>
       <c r="N6">
-        <v>0.9748075618451275</v>
+        <v>0.9976448166672063</v>
       </c>
       <c r="O6">
-        <v>0.9707795015603101</v>
+        <v>0.9972964201480762</v>
       </c>
       <c r="P6">
-        <v>0.9886873800622803</v>
+        <v>0.9989723265933416</v>
       </c>
       <c r="Q6">
-        <v>0.9886873800622803</v>
+        <v>0.9989723265933416</v>
       </c>
       <c r="R6">
-        <v>0.9956272891708566</v>
+        <v>0.9996360815564092</v>
       </c>
       <c r="S6">
-        <v>0.9956272891708566</v>
+        <v>0.9996360815564092</v>
       </c>
       <c r="T6">
-        <v>0.9985766259170622</v>
+        <v>0.9998490028300283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000540115213214</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="D7">
-        <v>1.001397080567509</v>
+        <v>1.013586162838613</v>
       </c>
       <c r="E7">
-        <v>0.9988366473608982</v>
+        <v>0.9888898419668624</v>
       </c>
       <c r="F7">
-        <v>1.000529395188792</v>
+        <v>1.005044591577809</v>
       </c>
       <c r="G7">
-        <v>1.000524983974282</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="H7">
-        <v>0.997878445727176</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="I7">
-        <v>1.000540115213214</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="J7">
-        <v>0.997878445727176</v>
+        <v>0.9798579235590782</v>
       </c>
       <c r="K7">
-        <v>1.000540115213214</v>
+        <v>1.004946584733429</v>
       </c>
       <c r="L7">
-        <v>1.000524983974282</v>
+        <v>1.005084927391929</v>
       </c>
       <c r="M7">
-        <v>0.9992017148507293</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="N7">
-        <v>0.9992017148507293</v>
+        <v>0.9924714254755036</v>
       </c>
       <c r="O7">
-        <v>0.9990800256874522</v>
+        <v>0.9912775643059565</v>
       </c>
       <c r="P7">
-        <v>0.9996478483048907</v>
+        <v>0.9966298118948119</v>
       </c>
       <c r="Q7">
-        <v>0.9996478483048907</v>
+        <v>0.9966298118948121</v>
       </c>
       <c r="R7">
-        <v>0.9998709150319716</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="S7">
-        <v>0.9998709150319716</v>
+        <v>0.9987090051044663</v>
       </c>
       <c r="T7">
-        <v>0.9999511113386452</v>
+        <v>0.9995683386779534</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000038381226689</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="D8">
-        <v>1.000116845065069</v>
+        <v>1.045756639759774</v>
       </c>
       <c r="E8">
-        <v>0.9999072149764495</v>
+        <v>0.9627233809906754</v>
       </c>
       <c r="F8">
-        <v>1.00004197337816</v>
+        <v>1.016917594565083</v>
       </c>
       <c r="G8">
-        <v>1.00004345328493</v>
+        <v>1.017111279368659</v>
       </c>
       <c r="H8">
-        <v>0.9998334327049919</v>
+        <v>0.9325038443215957</v>
       </c>
       <c r="I8">
-        <v>1.000038381226689</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="J8">
-        <v>0.9998334327049919</v>
+        <v>0.9325038443215957</v>
       </c>
       <c r="K8">
-        <v>1.000038381226689</v>
+        <v>1.016447016496586</v>
       </c>
       <c r="L8">
-        <v>1.00004345328493</v>
+        <v>1.017111279368659</v>
       </c>
       <c r="M8">
-        <v>0.9999384429949612</v>
+        <v>0.9748075618451275</v>
       </c>
       <c r="N8">
-        <v>0.9999384429949612</v>
+        <v>0.9748075618451275</v>
       </c>
       <c r="O8">
-        <v>0.9999280336554572</v>
+        <v>0.9707795015603101</v>
       </c>
       <c r="P8">
-        <v>0.9999717557388705</v>
+        <v>0.9886873800622803</v>
       </c>
       <c r="Q8">
-        <v>0.9999717557388706</v>
+        <v>0.9886873800622803</v>
       </c>
       <c r="R8">
-        <v>0.9999884121108253</v>
+        <v>0.9956272891708566</v>
       </c>
       <c r="S8">
-        <v>0.9999884121108253</v>
+        <v>0.9956272891708566</v>
       </c>
       <c r="T8">
-        <v>0.9999968834393819</v>
+        <v>0.9985766259170622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000953345806396</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="D9">
-        <v>1.002463232802966</v>
+        <v>1.001397080567509</v>
       </c>
       <c r="E9">
-        <v>0.9979481588522058</v>
+        <v>0.9988366473608982</v>
       </c>
       <c r="F9">
-        <v>1.000933748547277</v>
+        <v>1.000529395188792</v>
       </c>
       <c r="G9">
-        <v>1.000925687899135</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="H9">
-        <v>0.9962577372339715</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="I9">
-        <v>1.000953345806396</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="J9">
-        <v>0.9962577372339715</v>
+        <v>0.997878445727176</v>
       </c>
       <c r="K9">
-        <v>1.000953345806396</v>
+        <v>1.000540115213214</v>
       </c>
       <c r="L9">
-        <v>1.000925687899135</v>
+        <v>1.000524983974282</v>
       </c>
       <c r="M9">
-        <v>0.9985917125665535</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="N9">
-        <v>0.9985917125665535</v>
+        <v>0.9992017148507293</v>
       </c>
       <c r="O9">
-        <v>0.9983771946617709</v>
+        <v>0.9990800256874522</v>
       </c>
       <c r="P9">
-        <v>0.9993789236465008</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="Q9">
-        <v>0.9993789236465008</v>
+        <v>0.9996478483048907</v>
       </c>
       <c r="R9">
-        <v>0.9997725291864745</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="S9">
-        <v>0.9997725291864745</v>
+        <v>0.9998709150319716</v>
       </c>
       <c r="T9">
-        <v>0.9999136518569919</v>
+        <v>0.9999511113386452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.016683669816186</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="D10">
-        <v>1.046446877379294</v>
+        <v>1.000116845065069</v>
       </c>
       <c r="E10">
-        <v>0.9621686665511567</v>
+        <v>0.9999072149764495</v>
       </c>
       <c r="F10">
-        <v>1.017168917682716</v>
+        <v>1.00004197337816</v>
       </c>
       <c r="G10">
-        <v>1.017368639475932</v>
+        <v>1.00004345328493</v>
       </c>
       <c r="H10">
-        <v>0.9315039857650657</v>
+        <v>0.9998334327049919</v>
       </c>
       <c r="I10">
-        <v>1.016683669816186</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="J10">
-        <v>0.9315039857650657</v>
+        <v>0.9998334327049919</v>
       </c>
       <c r="K10">
-        <v>1.016683669816186</v>
+        <v>1.000038381226689</v>
       </c>
       <c r="L10">
-        <v>1.017368639475932</v>
+        <v>1.00004345328493</v>
       </c>
       <c r="M10">
-        <v>0.9744363126204987</v>
+        <v>0.9999384429949612</v>
       </c>
       <c r="N10">
-        <v>0.9744363126204987</v>
+        <v>0.9999384429949612</v>
       </c>
       <c r="O10">
-        <v>0.9703470972640513</v>
+        <v>0.9999280336554572</v>
       </c>
       <c r="P10">
-        <v>0.9885187650190611</v>
+        <v>0.9999717557388705</v>
       </c>
       <c r="Q10">
-        <v>0.9885187650190611</v>
+        <v>0.9999717557388706</v>
       </c>
       <c r="R10">
-        <v>0.9955599912183424</v>
+        <v>0.9999884121108253</v>
       </c>
       <c r="S10">
-        <v>0.9955599912183424</v>
+        <v>0.9999884121108253</v>
       </c>
       <c r="T10">
-        <v>0.9985567927783916</v>
+        <v>0.9999968834393819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002884619406063</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="D11">
-        <v>1.007453239243308</v>
+        <v>1.002463232802966</v>
       </c>
       <c r="E11">
-        <v>0.9937915508016348</v>
+        <v>0.9979481588522058</v>
       </c>
       <c r="F11">
-        <v>1.00282533429946</v>
+        <v>1.000933748547277</v>
       </c>
       <c r="G11">
-        <v>1.00280093917201</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="H11">
-        <v>0.9886766992121383</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="I11">
-        <v>1.002884619406063</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="J11">
-        <v>0.9886766992121383</v>
+        <v>0.9962577372339715</v>
       </c>
       <c r="K11">
-        <v>1.002884619406063</v>
+        <v>1.000953345806396</v>
       </c>
       <c r="L11">
-        <v>1.00280093917201</v>
+        <v>1.000925687899135</v>
       </c>
       <c r="M11">
-        <v>0.995738819192074</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="N11">
-        <v>0.995738819192074</v>
+        <v>0.9985917125665535</v>
       </c>
       <c r="O11">
-        <v>0.9950897297285942</v>
+        <v>0.9983771946617709</v>
       </c>
       <c r="P11">
-        <v>0.998120752596737</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="Q11">
-        <v>0.998120752596737</v>
+        <v>0.9993789236465008</v>
       </c>
       <c r="R11">
-        <v>0.9993117192990686</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="S11">
-        <v>0.9993117192990686</v>
+        <v>0.9997725291864745</v>
       </c>
       <c r="T11">
-        <v>0.9997387303557691</v>
+        <v>0.9999136518569919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005050166884211</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="D12">
-        <v>1.014071693968421</v>
+        <v>1.046446877379294</v>
       </c>
       <c r="E12">
-        <v>0.9885413982421077</v>
+        <v>0.9621686665511567</v>
       </c>
       <c r="F12">
-        <v>1.005200074294735</v>
+        <v>1.017168917682716</v>
       </c>
       <c r="G12">
-        <v>1.005261768915788</v>
+        <v>1.017368639475932</v>
       </c>
       <c r="H12">
-        <v>0.9792552165894739</v>
+        <v>0.9315039857650657</v>
       </c>
       <c r="I12">
-        <v>1.005050166884211</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="J12">
-        <v>0.9792552165894739</v>
+        <v>0.9315039857650657</v>
       </c>
       <c r="K12">
-        <v>1.005050166884211</v>
+        <v>1.016683669816186</v>
       </c>
       <c r="L12">
-        <v>1.005261768915788</v>
+        <v>1.017368639475932</v>
       </c>
       <c r="M12">
-        <v>0.9922584927526311</v>
+        <v>0.9744363126204987</v>
       </c>
       <c r="N12">
-        <v>0.9922584927526311</v>
+        <v>0.9744363126204987</v>
       </c>
       <c r="O12">
-        <v>0.9910194612491233</v>
+        <v>0.9703470972640513</v>
       </c>
       <c r="P12">
-        <v>0.9965223841298245</v>
+        <v>0.9885187650190611</v>
       </c>
       <c r="Q12">
-        <v>0.9965223841298245</v>
+        <v>0.9885187650190611</v>
       </c>
       <c r="R12">
-        <v>0.9986543298184212</v>
+        <v>0.9955599912183424</v>
       </c>
       <c r="S12">
-        <v>0.9986543298184212</v>
+        <v>0.9955599912183424</v>
       </c>
       <c r="T12">
-        <v>0.9995633864824561</v>
+        <v>0.9985567927783916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9966385859623501</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="D13">
-        <v>0.9909528404853495</v>
+        <v>1.007453239243308</v>
       </c>
       <c r="E13">
-        <v>1.007443146634476</v>
+        <v>0.9937915508016348</v>
       </c>
       <c r="F13">
-        <v>0.9966179078987478</v>
+        <v>1.00282533429946</v>
       </c>
       <c r="G13">
-        <v>0.9966093990986991</v>
+        <v>1.00280093917201</v>
       </c>
       <c r="H13">
-        <v>1.013520711522407</v>
+        <v>0.9886766992121383</v>
       </c>
       <c r="I13">
-        <v>0.9966385859623501</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="J13">
-        <v>1.013520711522407</v>
+        <v>0.9886766992121383</v>
       </c>
       <c r="K13">
-        <v>0.9966385859623501</v>
+        <v>1.002884619406063</v>
       </c>
       <c r="L13">
-        <v>0.9966093990986991</v>
+        <v>1.00280093917201</v>
       </c>
       <c r="M13">
-        <v>1.005065055310553</v>
+        <v>0.995738819192074</v>
       </c>
       <c r="N13">
-        <v>1.005065055310553</v>
+        <v>0.995738819192074</v>
       </c>
       <c r="O13">
-        <v>1.005857752418527</v>
+        <v>0.9950897297285942</v>
       </c>
       <c r="P13">
-        <v>1.002256232194485</v>
+        <v>0.998120752596737</v>
       </c>
       <c r="Q13">
-        <v>1.002256232194485</v>
+        <v>0.998120752596737</v>
       </c>
       <c r="R13">
-        <v>1.000851820636452</v>
+        <v>0.9993117192990686</v>
       </c>
       <c r="S13">
-        <v>1.000851820636452</v>
+        <v>0.9993117192990686</v>
       </c>
       <c r="T13">
-        <v>1.000297098600338</v>
+        <v>0.9997387303557691</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.028804100000001</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="D14">
-        <v>1.080269000000001</v>
+        <v>1.014071693968421</v>
       </c>
       <c r="E14">
-        <v>0.9346391799999993</v>
+        <v>0.9885413982421077</v>
       </c>
       <c r="F14">
-        <v>1.029661500000002</v>
+        <v>1.005200074294735</v>
       </c>
       <c r="G14">
-        <v>1.030014399999999</v>
+        <v>1.005261768915788</v>
       </c>
       <c r="H14">
-        <v>0.8816714299999989</v>
+        <v>0.9792552165894739</v>
       </c>
       <c r="I14">
-        <v>1.028804100000001</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="J14">
-        <v>0.8816714299999989</v>
+        <v>0.9792552165894739</v>
       </c>
       <c r="K14">
-        <v>1.028804100000001</v>
+        <v>1.005050166884211</v>
       </c>
       <c r="L14">
-        <v>1.030014399999999</v>
+        <v>1.005261768915788</v>
       </c>
       <c r="M14">
-        <v>0.9558429149999992</v>
+        <v>0.9922584927526311</v>
       </c>
       <c r="N14">
-        <v>0.9558429149999992</v>
+        <v>0.9922584927526311</v>
       </c>
       <c r="O14">
-        <v>0.9487750033333325</v>
+        <v>0.9910194612491233</v>
       </c>
       <c r="P14">
-        <v>0.9801633099999997</v>
+        <v>0.9965223841298245</v>
       </c>
       <c r="Q14">
-        <v>0.9801633099999997</v>
+        <v>0.9965223841298245</v>
       </c>
       <c r="R14">
-        <v>0.9923235075000001</v>
+        <v>0.9986543298184212</v>
       </c>
       <c r="S14">
-        <v>0.9923235075000001</v>
+        <v>0.9986543298184212</v>
       </c>
       <c r="T14">
-        <v>0.9975099350000001</v>
+        <v>0.9995633864824561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9994956399999999</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="D15">
-        <v>0.9990985000000001</v>
+        <v>0.9909528404853495</v>
       </c>
       <c r="E15">
-        <v>1.0008542</v>
+        <v>1.007443146634476</v>
       </c>
       <c r="F15">
-        <v>0.9996056</v>
+        <v>0.9966179078987478</v>
       </c>
       <c r="G15">
-        <v>0.99965085</v>
+        <v>0.9966093990986991</v>
       </c>
       <c r="H15">
-        <v>1.0016183</v>
+        <v>1.013520711522407</v>
       </c>
       <c r="I15">
-        <v>0.9994956399999999</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="J15">
-        <v>1.0016183</v>
+        <v>1.013520711522407</v>
       </c>
       <c r="K15">
-        <v>0.9994956399999999</v>
+        <v>0.9966385859623501</v>
       </c>
       <c r="L15">
-        <v>0.99965085</v>
+        <v>0.9966093990986991</v>
       </c>
       <c r="M15">
-        <v>1.000634575</v>
+        <v>1.005065055310553</v>
       </c>
       <c r="N15">
-        <v>1.000634575</v>
+        <v>1.005065055310553</v>
       </c>
       <c r="O15">
-        <v>1.000707783333333</v>
+        <v>1.005857752418527</v>
       </c>
       <c r="P15">
-        <v>1.00025493</v>
+        <v>1.002256232194485</v>
       </c>
       <c r="Q15">
-        <v>1.00025493</v>
+        <v>1.002256232194485</v>
       </c>
       <c r="R15">
-        <v>1.0000651075</v>
+        <v>1.000851820636452</v>
       </c>
       <c r="S15">
-        <v>1.0000651075</v>
+        <v>1.000851820636452</v>
       </c>
       <c r="T15">
-        <v>1.000053848333333</v>
+        <v>1.000297098600338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.012634</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="D16">
-        <v>1.0301398</v>
+        <v>1.080269000000001</v>
       </c>
       <c r="E16">
-        <v>0.9742505199999999</v>
+        <v>0.9346391799999993</v>
       </c>
       <c r="F16">
-        <v>1.0117535</v>
+        <v>1.029661500000002</v>
       </c>
       <c r="G16">
-        <v>1.0113912</v>
+        <v>1.030014399999999</v>
       </c>
       <c r="H16">
-        <v>0.9526597999999999</v>
+        <v>0.8816714299999989</v>
       </c>
       <c r="I16">
-        <v>1.012634</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="J16">
-        <v>0.9526597999999999</v>
+        <v>0.8816714299999989</v>
       </c>
       <c r="K16">
-        <v>1.012634</v>
+        <v>1.028804100000001</v>
       </c>
       <c r="L16">
-        <v>1.0113912</v>
+        <v>1.030014399999999</v>
       </c>
       <c r="M16">
-        <v>0.9820255</v>
+        <v>0.9558429149999992</v>
       </c>
       <c r="N16">
-        <v>0.9820255</v>
+        <v>0.9558429149999992</v>
       </c>
       <c r="O16">
-        <v>0.97943384</v>
+        <v>0.9487750033333325</v>
       </c>
       <c r="P16">
-        <v>0.9922283333333333</v>
+        <v>0.9801633099999997</v>
       </c>
       <c r="Q16">
-        <v>0.9922283333333333</v>
+        <v>0.9801633099999997</v>
       </c>
       <c r="R16">
-        <v>0.99732975</v>
+        <v>0.9923235075000001</v>
       </c>
       <c r="S16">
-        <v>0.99732975</v>
+        <v>0.9923235075000001</v>
       </c>
       <c r="T16">
-        <v>0.9988048033333333</v>
+        <v>0.9975099350000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.98484691</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="D17">
-        <v>0.9598697299999999</v>
+        <v>0.9990985000000001</v>
       </c>
       <c r="E17">
-        <v>1.0331767</v>
+        <v>1.0008542</v>
       </c>
       <c r="F17">
-        <v>0.98491583</v>
+        <v>0.9996056</v>
       </c>
       <c r="G17">
-        <v>0.9849442</v>
+        <v>0.99965085</v>
       </c>
       <c r="H17">
-        <v>1.0603622</v>
+        <v>1.0016183</v>
       </c>
       <c r="I17">
-        <v>0.98484691</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="J17">
-        <v>1.0603622</v>
+        <v>1.0016183</v>
       </c>
       <c r="K17">
-        <v>0.98484691</v>
+        <v>0.9994956399999999</v>
       </c>
       <c r="L17">
-        <v>0.9849442</v>
+        <v>0.99965085</v>
       </c>
       <c r="M17">
-        <v>1.0226532</v>
+        <v>1.000634575</v>
       </c>
       <c r="N17">
-        <v>1.0226532</v>
+        <v>1.000634575</v>
       </c>
       <c r="O17">
-        <v>1.026161033333333</v>
+        <v>1.000707783333333</v>
       </c>
       <c r="P17">
-        <v>1.010051103333333</v>
+        <v>1.00025493</v>
       </c>
       <c r="Q17">
-        <v>1.010051103333333</v>
+        <v>1.00025493</v>
       </c>
       <c r="R17">
-        <v>1.003750055</v>
+        <v>1.0000651075</v>
       </c>
       <c r="S17">
-        <v>1.003750055</v>
+        <v>1.0000651075</v>
       </c>
       <c r="T17">
-        <v>1.001352595</v>
+        <v>1.000053848333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.011270174794521</v>
+        <v>1.012634</v>
       </c>
       <c r="D18">
-        <v>1.028994020547946</v>
+        <v>1.0301398</v>
       </c>
       <c r="E18">
-        <v>0.9758160487671234</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F18">
-        <v>1.011007383561644</v>
+        <v>1.0117535</v>
       </c>
       <c r="G18">
-        <v>1.01089924589041</v>
+        <v>1.0113912</v>
       </c>
       <c r="H18">
-        <v>0.9558730956164384</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I18">
-        <v>1.011270174794521</v>
+        <v>1.012634</v>
       </c>
       <c r="J18">
-        <v>0.9558730956164384</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K18">
-        <v>1.011270174794521</v>
+        <v>1.012634</v>
       </c>
       <c r="L18">
-        <v>1.01089924589041</v>
+        <v>1.0113912</v>
       </c>
       <c r="M18">
-        <v>0.9833861707534244</v>
+        <v>0.9820255</v>
       </c>
       <c r="N18">
-        <v>0.9833861707534244</v>
+        <v>0.9820255</v>
       </c>
       <c r="O18">
-        <v>0.9808627967579907</v>
+        <v>0.97943384</v>
       </c>
       <c r="P18">
-        <v>0.992680838767123</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q18">
-        <v>0.9926808387671232</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R18">
-        <v>0.9973281727739725</v>
+        <v>0.99732975</v>
       </c>
       <c r="S18">
-        <v>0.9973281727739725</v>
+        <v>0.99732975</v>
       </c>
       <c r="T18">
-        <v>0.9989766615296803</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00098809631579</v>
+        <v>0.98484691</v>
       </c>
       <c r="D19">
-        <v>1.002501201578947</v>
+        <v>0.9598697299999999</v>
       </c>
       <c r="E19">
-        <v>0.9979032152631578</v>
+        <v>1.0331767</v>
       </c>
       <c r="F19">
-        <v>1.000954932631579</v>
+        <v>0.98491583</v>
       </c>
       <c r="G19">
-        <v>1.000941296842105</v>
+        <v>0.9849442</v>
       </c>
       <c r="H19">
-        <v>0.9961679636842106</v>
+        <v>1.0603622</v>
       </c>
       <c r="I19">
-        <v>1.00098809631579</v>
+        <v>0.98484691</v>
       </c>
       <c r="J19">
-        <v>0.9961679636842106</v>
+        <v>1.0603622</v>
       </c>
       <c r="K19">
-        <v>1.00098809631579</v>
+        <v>0.98484691</v>
       </c>
       <c r="L19">
-        <v>1.000941296842105</v>
+        <v>0.9849442</v>
       </c>
       <c r="M19">
-        <v>0.9985546302631578</v>
+        <v>1.0226532</v>
       </c>
       <c r="N19">
-        <v>0.9985546302631578</v>
+        <v>1.0226532</v>
       </c>
       <c r="O19">
-        <v>0.9983374919298246</v>
+        <v>1.026161033333333</v>
       </c>
       <c r="P19">
-        <v>0.9993657856140351</v>
+        <v>1.010051103333333</v>
       </c>
       <c r="Q19">
-        <v>0.9993657856140351</v>
+        <v>1.010051103333333</v>
       </c>
       <c r="R19">
-        <v>0.9997713632894737</v>
+        <v>1.003750055</v>
       </c>
       <c r="S19">
-        <v>0.9997713632894737</v>
+        <v>1.003750055</v>
       </c>
       <c r="T19">
-        <v>0.9999094510526317</v>
+        <v>1.001352595</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.004618142631579</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="D20">
-        <v>1.013468976842105</v>
+        <v>1.028994020547946</v>
       </c>
       <c r="E20">
-        <v>0.989175435263158</v>
+        <v>0.9758160487671234</v>
       </c>
       <c r="F20">
-        <v>1.004904264736842</v>
+        <v>1.011007383561644</v>
       </c>
       <c r="G20">
-        <v>1.005022017894737</v>
+        <v>1.01089924589041</v>
       </c>
       <c r="H20">
-        <v>0.980488906842105</v>
+        <v>0.9558730956164384</v>
       </c>
       <c r="I20">
-        <v>1.004618142631579</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="J20">
-        <v>0.980488906842105</v>
+        <v>0.9558730956164384</v>
       </c>
       <c r="K20">
-        <v>1.004618142631579</v>
+        <v>1.011270174794521</v>
       </c>
       <c r="L20">
-        <v>1.005022017894737</v>
+        <v>1.01089924589041</v>
       </c>
       <c r="M20">
-        <v>0.9927554623684209</v>
+        <v>0.9833861707534244</v>
       </c>
       <c r="N20">
-        <v>0.9927554623684209</v>
+        <v>0.9833861707534244</v>
       </c>
       <c r="O20">
-        <v>0.9915621199999999</v>
+        <v>0.9808627967579907</v>
       </c>
       <c r="P20">
-        <v>0.9967096891228069</v>
+        <v>0.992680838767123</v>
       </c>
       <c r="Q20">
-        <v>0.9967096891228069</v>
+        <v>0.9926808387671232</v>
       </c>
       <c r="R20">
-        <v>0.9986868024999999</v>
+        <v>0.9973281727739725</v>
       </c>
       <c r="S20">
-        <v>0.9986868024999999</v>
+        <v>0.9973281727739725</v>
       </c>
       <c r="T20">
-        <v>0.9996129573684209</v>
+        <v>0.9989766615296803</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9900358477152421</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="D21">
-        <v>0.9729884594911625</v>
+        <v>1.002501201578947</v>
       </c>
       <c r="E21">
-        <v>1.022174853850979</v>
+        <v>0.9979032152631578</v>
       </c>
       <c r="F21">
-        <v>0.9899266303380642</v>
+        <v>1.000954932631579</v>
       </c>
       <c r="G21">
-        <v>0.9898816838310925</v>
+        <v>1.000941296842105</v>
       </c>
       <c r="H21">
-        <v>1.040253016084317</v>
+        <v>0.9961679636842106</v>
       </c>
       <c r="I21">
-        <v>0.9900358477152421</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="J21">
-        <v>1.040253016084317</v>
+        <v>0.9961679636842106</v>
       </c>
       <c r="K21">
-        <v>0.9900358477152421</v>
+        <v>1.00098809631579</v>
       </c>
       <c r="L21">
-        <v>0.9898816838310925</v>
+        <v>1.000941296842105</v>
       </c>
       <c r="M21">
-        <v>1.015067349957705</v>
+        <v>0.9985546302631578</v>
       </c>
       <c r="N21">
-        <v>1.015067349957705</v>
+        <v>0.9985546302631578</v>
       </c>
       <c r="O21">
-        <v>1.017436517922129</v>
+        <v>0.9983374919298246</v>
       </c>
       <c r="P21">
-        <v>1.006723515876884</v>
+        <v>0.9993657856140351</v>
       </c>
       <c r="Q21">
-        <v>1.006723515876884</v>
+        <v>0.9993657856140351</v>
       </c>
       <c r="R21">
-        <v>1.002551598836473</v>
+        <v>0.9997713632894737</v>
       </c>
       <c r="S21">
-        <v>1.002551598836473</v>
+        <v>0.9997713632894737</v>
       </c>
       <c r="T21">
-        <v>1.00087674855181</v>
+        <v>0.9999094510526317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9972920549189415</v>
+        <v>1.004618142631579</v>
       </c>
       <c r="D22">
-        <v>0.9929717101565173</v>
+        <v>1.013468976842105</v>
       </c>
       <c r="E22">
-        <v>1.005846372533538</v>
+        <v>0.989175435263158</v>
       </c>
       <c r="F22">
-        <v>0.9973398846491768</v>
+        <v>1.004904264736842</v>
       </c>
       <c r="G22">
-        <v>0.9973595655156353</v>
+        <v>1.005022017894737</v>
       </c>
       <c r="H22">
-        <v>1.010658170748781</v>
+        <v>0.980488906842105</v>
       </c>
       <c r="I22">
-        <v>0.9972920549189415</v>
+        <v>1.004618142631579</v>
       </c>
       <c r="J22">
-        <v>1.010658170748781</v>
+        <v>0.980488906842105</v>
       </c>
       <c r="K22">
-        <v>0.9972920549189415</v>
+        <v>1.004618142631579</v>
       </c>
       <c r="L22">
-        <v>0.9973595655156353</v>
+        <v>1.005022017894737</v>
       </c>
       <c r="M22">
-        <v>1.004008868132208</v>
+        <v>0.9927554623684209</v>
       </c>
       <c r="N22">
-        <v>1.004008868132208</v>
+        <v>0.9927554623684209</v>
       </c>
       <c r="O22">
-        <v>1.004621369599318</v>
+        <v>0.9915621199999999</v>
       </c>
       <c r="P22">
-        <v>1.001769930394453</v>
+        <v>0.9967096891228069</v>
       </c>
       <c r="Q22">
-        <v>1.001769930394453</v>
+        <v>0.9967096891228069</v>
       </c>
       <c r="R22">
-        <v>1.000650461525575</v>
+        <v>0.9986868024999999</v>
       </c>
       <c r="S22">
-        <v>1.000650461525575</v>
+        <v>0.9986868024999999</v>
       </c>
       <c r="T22">
-        <v>1.000244626420432</v>
+        <v>0.9996129573684209</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9968322276474076</v>
+        <v>0.9900358477152421</v>
       </c>
       <c r="D23">
-        <v>0.9905691250984633</v>
+        <v>0.9729884594911625</v>
       </c>
       <c r="E23">
-        <v>1.00753559308632</v>
+        <v>1.022174853850979</v>
       </c>
       <c r="F23">
-        <v>0.9965883628031168</v>
+        <v>0.9899266303380642</v>
       </c>
       <c r="G23">
-        <v>0.9964880066287487</v>
+        <v>0.9898816838310925</v>
       </c>
       <c r="H23">
-        <v>1.013556224439598</v>
+        <v>1.040253016084317</v>
       </c>
       <c r="I23">
-        <v>0.9968322276474076</v>
+        <v>0.9900358477152421</v>
       </c>
       <c r="J23">
-        <v>1.013556224439598</v>
+        <v>1.040253016084317</v>
       </c>
       <c r="K23">
-        <v>0.9968322276474076</v>
+        <v>0.9900358477152421</v>
       </c>
       <c r="L23">
-        <v>0.9964880066287487</v>
+        <v>0.9898816838310925</v>
       </c>
       <c r="M23">
-        <v>1.005022115534173</v>
+        <v>1.015067349957705</v>
       </c>
       <c r="N23">
-        <v>1.005022115534173</v>
+        <v>1.015067349957705</v>
       </c>
       <c r="O23">
-        <v>1.005859941384889</v>
+        <v>1.017436517922129</v>
       </c>
       <c r="P23">
-        <v>1.002292152905251</v>
+        <v>1.006723515876884</v>
       </c>
       <c r="Q23">
-        <v>1.002292152905252</v>
+        <v>1.006723515876884</v>
       </c>
       <c r="R23">
-        <v>1.000927171590791</v>
+        <v>1.002551598836473</v>
       </c>
       <c r="S23">
-        <v>1.000927171590791</v>
+        <v>1.002551598836473</v>
       </c>
       <c r="T23">
-        <v>1.000261589950609</v>
+        <v>1.00087674855181</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9990044525379738</v>
+        <v>0.9972920549189415</v>
       </c>
       <c r="D24">
-        <v>0.9977634669739772</v>
+        <v>0.9929717101565173</v>
       </c>
       <c r="E24">
-        <v>1.001949287928831</v>
+        <v>1.005846372533538</v>
       </c>
       <c r="F24">
-        <v>0.9991081617959522</v>
+        <v>0.9973398846491768</v>
       </c>
       <c r="G24">
-        <v>0.9991508431319363</v>
+        <v>0.9973595655156353</v>
       </c>
       <c r="H24">
-        <v>1.003605760467463</v>
+        <v>1.010658170748781</v>
       </c>
       <c r="I24">
-        <v>0.9990044525379738</v>
+        <v>0.9972920549189415</v>
       </c>
       <c r="J24">
-        <v>1.003605760467463</v>
+        <v>1.010658170748781</v>
       </c>
       <c r="K24">
-        <v>0.9990044525379738</v>
+        <v>0.9972920549189415</v>
       </c>
       <c r="L24">
-        <v>0.9991508431319363</v>
+        <v>0.9973595655156353</v>
       </c>
       <c r="M24">
-        <v>1.0013783017997</v>
+        <v>1.004008868132208</v>
       </c>
       <c r="N24">
-        <v>1.0013783017997</v>
+        <v>1.004008868132208</v>
       </c>
       <c r="O24">
-        <v>1.00156863050941</v>
+        <v>1.004621369599318</v>
       </c>
       <c r="P24">
-        <v>1.000587018712458</v>
+        <v>1.001769930394453</v>
       </c>
       <c r="Q24">
-        <v>1.000587018712458</v>
+        <v>1.001769930394453</v>
       </c>
       <c r="R24">
-        <v>1.000191377168837</v>
+        <v>1.000650461525575</v>
       </c>
       <c r="S24">
-        <v>1.000191377168837</v>
+        <v>1.000650461525575</v>
       </c>
       <c r="T24">
-        <v>1.000096995472689</v>
+        <v>1.000244626420432</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.001567329292875</v>
+        <v>0.9968322276474076</v>
       </c>
       <c r="D25">
-        <v>1.00339618158943</v>
+        <v>0.9905691250984633</v>
       </c>
       <c r="E25">
-        <v>0.9970030946222684</v>
+        <v>1.00753559308632</v>
       </c>
       <c r="F25">
-        <v>1.00137308715489</v>
+        <v>0.9965883628031168</v>
       </c>
       <c r="G25">
-        <v>1.00129315592029</v>
+        <v>0.9964880066287487</v>
       </c>
       <c r="H25">
-        <v>0.9944357334591133</v>
+        <v>1.013556224439598</v>
       </c>
       <c r="I25">
-        <v>1.001567329292875</v>
+        <v>0.9968322276474076</v>
       </c>
       <c r="J25">
-        <v>0.9944357334591133</v>
+        <v>1.013556224439598</v>
       </c>
       <c r="K25">
-        <v>1.001567329292875</v>
+        <v>0.9968322276474076</v>
       </c>
       <c r="L25">
-        <v>1.00129315592029</v>
+        <v>0.9964880066287487</v>
       </c>
       <c r="M25">
-        <v>0.9978644446897016</v>
+        <v>1.005022115534173</v>
       </c>
       <c r="N25">
-        <v>0.9978644446897016</v>
+        <v>1.005022115534173</v>
       </c>
       <c r="O25">
-        <v>0.9975773280005572</v>
+        <v>1.005859941384889</v>
       </c>
       <c r="P25">
-        <v>0.999098739557426</v>
+        <v>1.002292152905251</v>
       </c>
       <c r="Q25">
-        <v>0.9990987395574261</v>
+        <v>1.002292152905252</v>
       </c>
       <c r="R25">
-        <v>0.9997158869912883</v>
+        <v>1.000927171590791</v>
       </c>
       <c r="S25">
-        <v>0.9997158869912883</v>
+        <v>1.000927171590791</v>
       </c>
       <c r="T25">
-        <v>0.9998447636731447</v>
+        <v>1.000261589950609</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000313963359868</v>
+        <v>0.9990044525379738</v>
       </c>
       <c r="D26">
-        <v>1.0011703015333</v>
+        <v>0.9977634669739772</v>
       </c>
       <c r="E26">
-        <v>0.9991174295135378</v>
+        <v>1.001949287928831</v>
       </c>
       <c r="F26">
-        <v>1.000396552757587</v>
+        <v>0.9991081617959522</v>
       </c>
       <c r="G26">
-        <v>1.00043053169805</v>
+        <v>0.9991508431319363</v>
       </c>
       <c r="H26">
-        <v>0.9984443785615899</v>
+        <v>1.003605760467463</v>
       </c>
       <c r="I26">
-        <v>1.000313963359868</v>
+        <v>0.9990044525379738</v>
       </c>
       <c r="J26">
-        <v>0.9984443785615899</v>
+        <v>1.003605760467463</v>
       </c>
       <c r="K26">
-        <v>1.000313963359868</v>
+        <v>0.9990044525379738</v>
       </c>
       <c r="L26">
-        <v>1.00043053169805</v>
+        <v>0.9991508431319363</v>
       </c>
       <c r="M26">
-        <v>0.9994374551298202</v>
+        <v>1.0013783017997</v>
       </c>
       <c r="N26">
-        <v>0.9994374551298202</v>
+        <v>1.0013783017997</v>
       </c>
       <c r="O26">
-        <v>0.9993307799243927</v>
+        <v>1.00156863050941</v>
       </c>
       <c r="P26">
-        <v>0.999729624539836</v>
+        <v>1.000587018712458</v>
       </c>
       <c r="Q26">
-        <v>0.9997296245398358</v>
+        <v>1.000587018712458</v>
       </c>
       <c r="R26">
-        <v>0.9998757092448438</v>
+        <v>1.000191377168837</v>
       </c>
       <c r="S26">
-        <v>0.9998757092448438</v>
+        <v>1.000191377168837</v>
       </c>
       <c r="T26">
-        <v>0.9999788595706555</v>
+        <v>1.000096995472689</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.001792502308201</v>
+        <v>1.001567329292875</v>
       </c>
       <c r="D27">
-        <v>1.00470115792336</v>
+        <v>1.00339618158943</v>
       </c>
       <c r="E27">
-        <v>0.9961019296159253</v>
+        <v>0.9970030946222684</v>
       </c>
       <c r="F27">
-        <v>1.001772925094582</v>
+        <v>1.00137308715489</v>
       </c>
       <c r="G27">
-        <v>1.001764921874513</v>
+        <v>1.00129315592029</v>
       </c>
       <c r="H27">
-        <v>0.9929009763220213</v>
+        <v>0.9944357334591133</v>
       </c>
       <c r="I27">
-        <v>1.001792502308201</v>
+        <v>1.001567329292875</v>
       </c>
       <c r="J27">
-        <v>0.9929009763220213</v>
+        <v>0.9944357334591133</v>
       </c>
       <c r="K27">
-        <v>1.001792502308201</v>
+        <v>1.001567329292875</v>
       </c>
       <c r="L27">
-        <v>1.001764921874513</v>
+        <v>1.00129315592029</v>
       </c>
       <c r="M27">
-        <v>0.997332949098267</v>
+        <v>0.9978644446897016</v>
       </c>
       <c r="N27">
-        <v>0.997332949098267</v>
+        <v>0.9978644446897016</v>
       </c>
       <c r="O27">
-        <v>0.9969226092708198</v>
+        <v>0.9975773280005572</v>
       </c>
       <c r="P27">
-        <v>0.9988194668349116</v>
+        <v>0.999098739557426</v>
       </c>
       <c r="Q27">
-        <v>0.9988194668349116</v>
+        <v>0.9990987395574261</v>
       </c>
       <c r="R27">
-        <v>0.9995627257032338</v>
+        <v>0.9997158869912883</v>
       </c>
       <c r="S27">
-        <v>0.9995627257032338</v>
+        <v>0.9997158869912883</v>
       </c>
       <c r="T27">
-        <v>0.9998390688564336</v>
+        <v>0.9998447636731447</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9996127414400335</v>
+        <v>1.000313963359868</v>
       </c>
       <c r="D28">
-        <v>0.9985884406682108</v>
+        <v>1.0011703015333</v>
       </c>
       <c r="E28">
-        <v>1.001070196806328</v>
+        <v>0.9991174295135378</v>
       </c>
       <c r="F28">
-        <v>0.9995187897717055</v>
+        <v>1.000396552757587</v>
       </c>
       <c r="G28">
-        <v>0.9994801345722419</v>
+        <v>1.00043053169805</v>
       </c>
       <c r="H28">
-        <v>1.001890022027909</v>
+        <v>0.9984443785615899</v>
       </c>
       <c r="I28">
-        <v>0.9996127414400335</v>
+        <v>1.000313963359868</v>
       </c>
       <c r="J28">
-        <v>1.001890022027909</v>
+        <v>0.9984443785615899</v>
       </c>
       <c r="K28">
-        <v>0.9996127414400335</v>
+        <v>1.000313963359868</v>
       </c>
       <c r="L28">
-        <v>0.9994801345722419</v>
+        <v>1.00043053169805</v>
       </c>
       <c r="M28">
-        <v>1.000685078300075</v>
+        <v>0.9994374551298202</v>
       </c>
       <c r="N28">
-        <v>1.000685078300075</v>
+        <v>0.9994374551298202</v>
       </c>
       <c r="O28">
-        <v>1.000813451135493</v>
+        <v>0.9993307799243927</v>
       </c>
       <c r="P28">
-        <v>1.000327632680061</v>
+        <v>0.999729624539836</v>
       </c>
       <c r="Q28">
-        <v>1.000327632680061</v>
+        <v>0.9997296245398358</v>
       </c>
       <c r="R28">
-        <v>1.000148909870054</v>
+        <v>0.9998757092448438</v>
       </c>
       <c r="S28">
-        <v>1.000148909870054</v>
+        <v>0.9998757092448438</v>
       </c>
       <c r="T28">
-        <v>1.000026720881071</v>
+        <v>0.9999788595706555</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="D29">
+        <v>1.00470115792336</v>
+      </c>
+      <c r="E29">
+        <v>0.9961019296159253</v>
+      </c>
+      <c r="F29">
+        <v>1.001772925094582</v>
+      </c>
+      <c r="G29">
+        <v>1.001764921874513</v>
+      </c>
+      <c r="H29">
+        <v>0.9929009763220213</v>
+      </c>
+      <c r="I29">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="J29">
+        <v>0.9929009763220213</v>
+      </c>
+      <c r="K29">
+        <v>1.001792502308201</v>
+      </c>
+      <c r="L29">
+        <v>1.001764921874513</v>
+      </c>
+      <c r="M29">
+        <v>0.997332949098267</v>
+      </c>
+      <c r="N29">
+        <v>0.997332949098267</v>
+      </c>
+      <c r="O29">
+        <v>0.9969226092708198</v>
+      </c>
+      <c r="P29">
+        <v>0.9988194668349116</v>
+      </c>
+      <c r="Q29">
+        <v>0.9988194668349116</v>
+      </c>
+      <c r="R29">
+        <v>0.9995627257032338</v>
+      </c>
+      <c r="S29">
+        <v>0.9995627257032338</v>
+      </c>
+      <c r="T29">
+        <v>0.9998390688564336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="D30">
+        <v>0.9985884406682108</v>
+      </c>
+      <c r="E30">
+        <v>1.001070196806328</v>
+      </c>
+      <c r="F30">
+        <v>0.9995187897717055</v>
+      </c>
+      <c r="G30">
+        <v>0.9994801345722419</v>
+      </c>
+      <c r="H30">
+        <v>1.001890022027909</v>
+      </c>
+      <c r="I30">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="J30">
+        <v>1.001890022027909</v>
+      </c>
+      <c r="K30">
+        <v>0.9996127414400335</v>
+      </c>
+      <c r="L30">
+        <v>0.9994801345722419</v>
+      </c>
+      <c r="M30">
+        <v>1.000685078300075</v>
+      </c>
+      <c r="N30">
+        <v>1.000685078300075</v>
+      </c>
+      <c r="O30">
+        <v>1.000813451135493</v>
+      </c>
+      <c r="P30">
+        <v>1.000327632680061</v>
+      </c>
+      <c r="Q30">
+        <v>1.000327632680061</v>
+      </c>
+      <c r="R30">
+        <v>1.000148909870054</v>
+      </c>
+      <c r="S30">
+        <v>1.000148909870054</v>
+      </c>
+      <c r="T30">
+        <v>1.000026720881071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9942206456430082</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9839751032311813</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.01306783121768</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.994068563790513</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.994006001794132</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.023669372544147</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9942206456430082</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.023669372544147</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9942206456430082</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.994006001794132</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.00883768716914</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.00883768716914</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.01024773518532</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003965339993762</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.003965339993762</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001529166406074</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001529166406074</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000501253036777</v>
       </c>
     </row>
